--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\commpany_money\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\commpany_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3EC38F-E8B1-4E7E-8580-33C117E5AC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BCA5E4-D990-4DCE-8FA7-D525B5537D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図" sheetId="10" r:id="rId1"/>
-    <sheet name="TP_Calendar" sheetId="13" r:id="rId2"/>
-    <sheet name="TC_Agreement" sheetId="7" r:id="rId3"/>
-    <sheet name="TM_PublicHoliday" sheetId="12" r:id="rId4"/>
-    <sheet name="TM_User" sheetId="1" r:id="rId5"/>
-    <sheet name="TM_Work_Location" sheetId="11" r:id="rId6"/>
-    <sheet name="TM_User_Work" sheetId="3" r:id="rId7"/>
-    <sheet name="TE_User_Count" sheetId="4" state="hidden" r:id="rId8"/>
-    <sheet name="TE_Work_Time" sheetId="9" r:id="rId9"/>
+    <sheet name="TC_Agreement (2)" sheetId="14" r:id="rId2"/>
+    <sheet name="TP_Calendar" sheetId="13" r:id="rId3"/>
+    <sheet name="TC_Agreement" sheetId="7" r:id="rId4"/>
+    <sheet name="TM_PublicHoliday" sheetId="12" r:id="rId5"/>
+    <sheet name="TM_User" sheetId="1" r:id="rId6"/>
+    <sheet name="TM_Work_Location" sheetId="11" r:id="rId7"/>
+    <sheet name="TM_User_Work" sheetId="3" r:id="rId8"/>
+    <sheet name="TE_User_Count" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="TE_Work_Time" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="152">
   <si>
     <t>テーブル論理名</t>
     <rPh sb="4" eb="6">
@@ -351,12 +352,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
     <t>del_flg</t>
   </si>
   <si>
@@ -845,15 +840,6 @@
     <t>overtime_nosta</t>
   </si>
   <si>
-    <t>overtime_nosata_midnight</t>
-  </si>
-  <si>
-    <t>private_company</t>
-  </si>
-  <si>
-    <t>customer_company</t>
-  </si>
-  <si>
     <t>break_time_any</t>
   </si>
   <si>
@@ -861,9 +847,6 @@
   </si>
   <si>
     <t>holiday_type</t>
-  </si>
-  <si>
-    <t>work_name</t>
   </si>
   <si>
     <t>agreement_name</t>
@@ -874,10 +857,6 @@
   </si>
   <si>
     <t>y_holiday</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>holiday</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -908,6 +887,62 @@
   </si>
   <si>
     <t>work_content</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>holiday_flg</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TM_Location</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Location_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Location_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員番号</t>
+    <rPh sb="0" eb="4">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>private_time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>customer_time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TC_HolidayType</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TM_Member</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>member_name</t>
+  </si>
+  <si>
+    <t>TM_Agreement</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TE_Member_Work</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>overtime_nosta_midnight</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1274,38 +1309,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1984,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBDE19C-B165-487B-A0EF-9AB241E95748}">
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2074,182 +2109,177 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B3" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B5" s="29" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B6" s="26" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B7" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>55</v>
+        <v>148</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B8" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>137</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B9" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B10" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B11" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="D12" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="F13" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="29" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B15" s="26" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B16" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>141</v>
-      </c>
       <c r="F16" s="25" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F20" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="D21" s="29" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="25" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2263,12 +2293,938 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAFEDA6-4C59-4898-A375-6ED897502BF9}">
+  <dimension ref="A1:AA21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="31"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="51">
+        <v>45128</v>
+      </c>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="31"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="31"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="31"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="53"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
+        <v>6</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="38"/>
+      <c r="M8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="64"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36">
+        <v>100</v>
+      </c>
+      <c r="L9" s="38"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="64"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="38"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="64"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="64"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="38"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="64"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="64"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="38"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="64"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="38"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="64"/>
+    </row>
+    <row r="16" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="63"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="64"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="38"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="64"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="64"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="38"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="64"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="64"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>15</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="38"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="126">
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9F0380-6A5A-442D-8FC4-55232AE4172E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE2AC0F-C4AF-466C-B027-8F5E6491BC17}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:Q1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2281,7 +3237,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
       <c r="E1" s="54" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
@@ -2295,18 +3251,18 @@
       <c r="O1" s="55"/>
       <c r="P1" s="55"/>
       <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="57" t="s">
@@ -2316,7 +3272,7 @@
       <c r="C2" s="58"/>
       <c r="D2" s="59"/>
       <c r="E2" s="54" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
@@ -2330,18 +3286,18 @@
       <c r="O2" s="55"/>
       <c r="P2" s="55"/>
       <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
-        <v>45131</v>
-      </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="51">
+        <v>45128</v>
+      </c>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -2350,60 +3306,60 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="E3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -2417,33 +3373,33 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="53"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
       <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
@@ -2465,22 +3421,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
       <c r="I7" s="35" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J7" s="35"/>
-      <c r="K7" s="35" t="s">
-        <v>108</v>
+      <c r="K7" s="35">
+        <v>6</v>
       </c>
       <c r="L7" s="35"/>
       <c r="M7" s="2" t="s">
@@ -2510,13 +3466,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
       <c r="F8" s="34" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -2525,7 +3481,7 @@
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="35">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L8" s="35"/>
       <c r="M8" s="2"/>
@@ -2588,6 +3544,330 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9F0380-6A5A-442D-8FC4-55232AE4172E}">
+  <dimension ref="A1:AA8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="51">
+        <v>45131</v>
+      </c>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="48"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="53"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
+        <v>10</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734AC1C0-0241-4BAA-93BF-9ED46739F7DA}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
@@ -2605,7 +3885,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
       <c r="E1" s="54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
@@ -2619,18 +3899,18 @@
       <c r="O1" s="55"/>
       <c r="P1" s="55"/>
       <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="57" t="s">
@@ -2640,7 +3920,7 @@
       <c r="C2" s="58"/>
       <c r="D2" s="59"/>
       <c r="E2" s="54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
@@ -2654,18 +3934,18 @@
       <c r="O2" s="55"/>
       <c r="P2" s="55"/>
       <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="51">
         <v>45128</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -2674,60 +3954,60 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="E3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -2741,33 +4021,33 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="53"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
       <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
@@ -2789,13 +4069,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -2834,13 +4114,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
       <c r="F8" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -2911,7 +4191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3129C99F-BFEC-4D85-BCDE-224F34ADAD50}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
@@ -2929,7 +4209,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
       <c r="E1" s="54" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
@@ -2943,18 +4223,18 @@
       <c r="O1" s="55"/>
       <c r="P1" s="55"/>
       <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="57" t="s">
@@ -2964,7 +4244,7 @@
       <c r="C2" s="58"/>
       <c r="D2" s="59"/>
       <c r="E2" s="54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
@@ -2978,18 +4258,18 @@
       <c r="O2" s="55"/>
       <c r="P2" s="55"/>
       <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="51">
         <v>45131</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -2998,60 +4278,60 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="E3" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -3065,33 +4345,33 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="53"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
       <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
@@ -3113,13 +4393,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -3128,7 +4408,7 @@
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L7" s="35"/>
       <c r="M7" s="2" t="s">
@@ -3187,12 +4467,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19896A3F-2449-4BCE-ABDC-A60C9290DECE}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3219,18 +4499,18 @@
       <c r="O1" s="55"/>
       <c r="P1" s="55"/>
       <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="57" t="s">
@@ -3254,18 +4534,18 @@
       <c r="O2" s="55"/>
       <c r="P2" s="55"/>
       <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="51">
         <v>45128</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -3274,60 +4554,60 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -3341,33 +4621,33 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="53"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
       <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
@@ -3389,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
@@ -3477,18 +4757,18 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J9" s="35"/>
       <c r="K9" s="35">
@@ -3572,7 +4852,7 @@
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="2"/>
@@ -3613,7 +4893,7 @@
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L12" s="35"/>
       <c r="M12" s="2"/>
@@ -3739,7 +5019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
@@ -3757,7 +5037,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
       <c r="E1" s="54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
@@ -3771,18 +5051,18 @@
       <c r="O1" s="55"/>
       <c r="P1" s="55"/>
       <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="57" t="s">
@@ -3792,7 +5072,7 @@
       <c r="C2" s="58"/>
       <c r="D2" s="59"/>
       <c r="E2" s="54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
@@ -3806,18 +5086,18 @@
       <c r="O2" s="55"/>
       <c r="P2" s="55"/>
       <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="51">
         <v>45128</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -3826,60 +5106,60 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="E3" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -3893,33 +5173,33 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="53"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
       <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
@@ -3941,13 +5221,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -3986,13 +5266,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
       <c r="F8" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -4083,7 +5363,7 @@
       </c>
       <c r="J10" s="38"/>
       <c r="K10" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="2"/>
@@ -4124,7 +5404,7 @@
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="2"/>
@@ -4241,7 +5521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E9B359-EFD8-4164-9BD1-98BCA9877C8B}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
@@ -4259,7 +5539,7 @@
       <c r="C1" s="58"/>
       <c r="D1" s="59"/>
       <c r="E1" s="75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F1" s="76"/>
       <c r="G1" s="76"/>
@@ -4273,18 +5553,18 @@
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
       <c r="Q1" s="76"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -4295,7 +5575,7 @@
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="76"/>
       <c r="G2" s="76"/>
@@ -4309,18 +5589,18 @@
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
       <c r="Q2" s="77"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="51">
         <v>45128</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
       <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -4331,30 +5611,30 @@
       <c r="C3" s="70"/>
       <c r="D3" s="71"/>
       <c r="E3" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
       <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -4362,62 +5642,62 @@
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
       <c r="D4" s="74"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
       <c r="Z4" s="31"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="53"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
       <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
@@ -4486,13 +5766,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
       <c r="F8" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -4531,13 +5811,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
@@ -4582,7 +5862,7 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
@@ -4667,7 +5947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57770D90-52BF-4068-ACA9-8D80725FF005}">
   <dimension ref="A1:AA17"/>
   <sheetViews>
@@ -4699,18 +5979,18 @@
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
       <c r="Q1" s="76"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
       <c r="Z1" s="14"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -4735,18 +6015,18 @@
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
       <c r="Q2" s="77"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="51">
         <v>45069</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
       <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -4759,30 +6039,30 @@
       <c r="E3" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="48"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -4790,64 +6070,64 @@
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
       <c r="D4" s="74"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="51">
         <v>45072</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
       <c r="Z4" s="18"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="53"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
       <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
@@ -5353,930 +6633,4 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAFEDA6-4C59-4898-A375-6ED897502BF9}">
-  <dimension ref="A1:AA21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="31"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
-        <v>45128</v>
-      </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="31"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="31"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="31"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35">
-        <v>6</v>
-      </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="64"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36">
-        <v>100</v>
-      </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="64"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="64"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="64"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="64"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="64"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="64"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>9</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="64"/>
-    </row>
-    <row r="16" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>10</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="64"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>11</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="64"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>12</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="64"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>13</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="64"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>14</v>
-      </c>
-      <c r="B20" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="64"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <v>15</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="64"/>
-    </row>
-  </sheetData>
-  <mergeCells count="126">
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\commpany_money\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DB12BB-9658-4FAB-828F-7A1280FFA968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A088652F-B058-4480-B66A-3B817C6AD77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図" sheetId="10" r:id="rId1"/>
-    <sheet name="TC_Agreement (2)" sheetId="14" r:id="rId2"/>
-    <sheet name="TP_Calendar" sheetId="13" r:id="rId3"/>
+    <sheet name="TP_Calendar" sheetId="13" r:id="rId2"/>
+    <sheet name="TC_HolidayType" sheetId="14" r:id="rId3"/>
     <sheet name="TC_Agreement" sheetId="7" r:id="rId4"/>
-    <sheet name="TM_PublicHoliday" sheetId="12" r:id="rId5"/>
-    <sheet name="TM_User" sheetId="1" r:id="rId6"/>
-    <sheet name="TM_Work_Location" sheetId="11" r:id="rId7"/>
-    <sheet name="TM_User_Work" sheetId="3" r:id="rId8"/>
-    <sheet name="TE_User_Count" sheetId="4" state="hidden" r:id="rId9"/>
-    <sheet name="TE_Work_Time" sheetId="9" r:id="rId10"/>
+    <sheet name="TM_Staff" sheetId="1" r:id="rId5"/>
+    <sheet name="TM_Location" sheetId="11" r:id="rId6"/>
+    <sheet name="TE_Staff_Location" sheetId="3" r:id="rId7"/>
+    <sheet name="TE_User_Count" sheetId="4" state="hidden" r:id="rId8"/>
+    <sheet name="TE_Time" sheetId="9" r:id="rId9"/>
+    <sheet name="TT_Time" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="159">
   <si>
     <t>テーブル論理名</t>
     <rPh sb="4" eb="6">
@@ -161,10 +162,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>user_name</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -246,10 +243,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>TM_User</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>YYMMnn(nnは連番)</t>
     <rPh sb="10" eb="12">
       <t>レンバン</t>
@@ -474,14 +467,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>work_id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>work_name</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>有休数</t>
     <rPh sb="0" eb="2">
       <t>ユウキュウ</t>
@@ -496,10 +481,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>TM_User_Work</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザー勤務先マスタ</t>
     <rPh sb="4" eb="7">
       <t>キンムサキ</t>
@@ -527,10 +508,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>TM_Work_Location</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>勤務時間マスタ</t>
     <rPh sb="0" eb="4">
       <t>キンムジカン</t>
@@ -731,18 +708,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>overtime_nosata_midnight</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>private_company</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>customer_company</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>break_time_any</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -765,23 +730,6 @@
   <si>
     <t>※対象DB名：company_money_maneger</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>祝日を格納するためのテーブル</t>
-    <rPh sb="0" eb="2">
-      <t>シュクジツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>祝日</t>
-    <rPh sb="0" eb="2">
-      <t>シュクジツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>カレンダーテーブル</t>
@@ -813,9 +761,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>work_id</t>
-  </si>
-  <si>
     <t>agreement_id</t>
   </si>
   <si>
@@ -852,30 +797,11 @@
     <t>agreement_name</t>
   </si>
   <si>
-    <t>holiday</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>y_holiday</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>TM_PublicHoliday</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>祝日カレンダーマスタ</t>
-    <rPh sb="0" eb="2">
-      <t>シュクジツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>TP_Calendar</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TE_Work_Time</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -898,14 +824,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Location_id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Location_name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>社員番号</t>
     <rPh sb="0" eb="4">
       <t>シャインバンゴウ</t>
@@ -925,23 +843,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>TM_Member</t>
-  </si>
-  <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>member_name</t>
-  </si>
-  <si>
     <t>TM_Agreement</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>TE_Member_Work</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>overtime_nosta_midnight</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -951,6 +856,152 @@
   </si>
   <si>
     <t>TT_Time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>staff_id</t>
+  </si>
+  <si>
+    <t>staff_name</t>
+  </si>
+  <si>
+    <t>TM_Staff</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TE_Staff_Location</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>休暇種別テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>休暇種別IDと休暇種別を紐づけるためのテーブル</t>
+    <rPh sb="0" eb="4">
+      <t>キュウカシュベツ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>キュウカシュベツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>休暇種別ID</t>
+    <rPh sb="0" eb="4">
+      <t>キュウカシュベツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>休暇種別名</t>
+    <rPh sb="0" eb="4">
+      <t>キュウカシュベツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>holiday_type</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>holiday_type_name</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>holiday_flg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>祝日フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>シュクジツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>location_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>location_name</t>
+  </si>
+  <si>
+    <t>location_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>遅刻</t>
+    <rPh sb="0" eb="2">
+      <t>チコク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>早退</t>
+    <rPh sb="0" eb="2">
+      <t>ソウタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>early</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>slow</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>始業時間</t>
+    <rPh sb="0" eb="4">
+      <t>シギョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>終業時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>勤務時間</t>
+    <rPh sb="0" eb="4">
+      <t>キンムジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>work_time</t>
+  </si>
+  <si>
+    <t>work_time</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1187,7 +1238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1288,6 +1339,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1346,24 +1415,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1424,15 +1475,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1625,14 +1667,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1648,8 +1690,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2162175" y="2514600"/>
-          <a:ext cx="1704975" cy="2847975"/>
+          <a:off x="2152650" y="2514600"/>
+          <a:ext cx="1714500" cy="3324225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1736,23 +1778,188 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1666875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D606C63D-5BD3-42E2-BCE4-BBBFA8FA56F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6042474-DAF7-82CD-5F70-537637F2F5FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4762500" y="781050"/>
+          <a:ext cx="0" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95253074-2568-318A-5A7F-C3D0F61D28F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4743450" y="800100"/>
+          <a:ext cx="4924425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89196189-99EE-84F4-9599-EEF0CFAA4498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9667875" y="781050"/>
+          <a:ext cx="0" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18716D41-223D-7FEB-AD8B-7EFC2F16AC28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,8 +1967,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5619750" y="3952875"/>
-          <a:ext cx="1647825" cy="1590675"/>
+          <a:off x="9648825" y="1304925"/>
+          <a:ext cx="400050" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1792,32 +1999,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2026</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>214008</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13">
+        <xdr:cNvPr id="17" name="直線コネクタ 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C79B84A-93A2-E4F6-165F-E8679DD51909}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085CE476-9654-B6E2-E4AD-B63566DD655B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2154676" y="1404633"/>
-          <a:ext cx="836174" cy="14592"/>
+        <a:xfrm flipH="1">
+          <a:off x="5610225" y="3924300"/>
+          <a:ext cx="752475" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1847,32 +2054,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15">
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A965F05B-DAA6-4271-BDE9-6A30266ED14B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8AE6CCD-B616-5719-B49D-CCD0E2440F4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2990850" y="1390650"/>
-          <a:ext cx="76200" cy="3905250"/>
+        <a:xfrm flipV="1">
+          <a:off x="6343650" y="3933825"/>
+          <a:ext cx="0" cy="1552575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1902,23 +2109,133 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76AC2022-606C-49E2-95C4-FBE5622B0361}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4647769-0FED-4360-B81A-D6B89CBB1C3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6324600" y="5495925"/>
+          <a:ext cx="3381375" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D866702-9077-0110-9B89-C090FFA7C306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9696864" y="1565413"/>
+          <a:ext cx="0" cy="3997187"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220265</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3E326E-E488-D646-4F9C-17FE86BE587B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,8 +2243,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="5276850"/>
-          <a:ext cx="4229100" cy="104775"/>
+          <a:off x="9685734" y="1562100"/>
+          <a:ext cx="370285" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2256,10 +2573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBDE19C-B165-487B-A0EF-9AB241E95748}">
-  <dimension ref="A1:AI37"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2268,24 +2585,27 @@
     <col min="2" max="5" width="22.625" style="19"/>
     <col min="6" max="6" width="28" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="22.625" style="19"/>
+    <col min="8" max="8" width="26.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="22.625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="F1" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
       <c r="O1" s="23"/>
@@ -2313,7 +2633,7 @@
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
       <c r="C2" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="22">
         <v>45131</v>
@@ -2321,7 +2641,9 @@
       <c r="E2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="22">
+        <v>45132</v>
+      </c>
       <c r="K2" s="23"/>
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
@@ -2348,267 +2670,249 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B3" s="30" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B5" s="29" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="79"/>
+        <v>131</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B6" s="26" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" s="80"/>
+        <v>132</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B7" s="25" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="80"/>
+        <v>51</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B8" s="25" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="81"/>
+        <v>121</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B9" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="81"/>
+        <v>108</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B10" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="81"/>
+        <v>109</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B11" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="81"/>
+        <v>110</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="D12" s="25" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="81"/>
+        <v>111</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="F13" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="81"/>
+        <v>112</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="14" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="29" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="81"/>
+        <v>113</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B15" s="26" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="81"/>
+        <v>129</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B16" s="25" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="81"/>
+        <v>125</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="25" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="81"/>
+        <v>126</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="25" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="81"/>
+        <v>114</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F22" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="81"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F20" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="81"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="29" t="s">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H27" s="27" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F25" s="25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F26" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F27" s="25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F28" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F29" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F30" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F31" s="25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F32" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F33" s="25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F34" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F35" s="25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F36" s="25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F37" s="25" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2623,24 +2927,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAFEDA6-4C59-4898-A375-6ED897502BF9}">
-  <dimension ref="A1:AA21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E289607-CB43-48F6-8EBA-5186E937FDC9}">
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="75" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F1" s="76"/>
       <c r="G1" s="76"/>
@@ -2654,18 +2958,18 @@
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
       <c r="Q1" s="76"/>
-      <c r="R1" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
+      <c r="R1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -2676,7 +2980,7 @@
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="75" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F2" s="76"/>
       <c r="G2" s="76"/>
@@ -2690,18 +2994,18 @@
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
       <c r="Q2" s="77"/>
-      <c r="R2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
-        <v>45128</v>
-      </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="R2" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="49">
+        <v>45132</v>
+      </c>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
       <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -2712,30 +3016,30 @@
       <c r="C3" s="70"/>
       <c r="D3" s="71"/>
       <c r="E3" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
       <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -2743,29 +3047,29 @@
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
       <c r="D4" s="74"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
       <c r="Z4" s="31"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
@@ -2799,106 +3103,106 @@
       </c>
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="Q6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
         <v>6</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+      <c r="N7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
       <c r="E8" s="65"/>
       <c r="F8" s="63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
-      <c r="I8" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="57"/>
+      <c r="I8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="35"/>
       <c r="M8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="56"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
+        <v>21</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
       <c r="U8" s="60"/>
       <c r="V8" s="61"/>
       <c r="W8" s="61"/>
@@ -2912,32 +3216,32 @@
         <v>3</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
       <c r="F9" s="63" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G9" s="64"/>
       <c r="H9" s="65"/>
-      <c r="I9" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55">
+      <c r="I9" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="33">
         <v>100</v>
       </c>
-      <c r="L9" s="57"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
       <c r="U9" s="60"/>
       <c r="V9" s="61"/>
       <c r="W9" s="61"/>
@@ -2951,32 +3255,32 @@
         <v>4</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="65"/>
       <c r="F10" s="63" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G10" s="64"/>
       <c r="H10" s="65"/>
-      <c r="I10" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="57"/>
+      <c r="I10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="35"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
       <c r="U10" s="60"/>
       <c r="V10" s="61"/>
       <c r="W10" s="61"/>
@@ -2989,33 +3293,33 @@
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" s="57"/>
+      <c r="B11" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="35"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
       <c r="U11" s="60"/>
       <c r="V11" s="61"/>
       <c r="W11" s="61"/>
@@ -3029,32 +3333,32 @@
         <v>6</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="65"/>
       <c r="F12" s="63" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G12" s="64"/>
       <c r="H12" s="65"/>
-      <c r="I12" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="57"/>
+      <c r="I12" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="35"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="57"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
       <c r="U12" s="60"/>
       <c r="V12" s="61"/>
       <c r="W12" s="61"/>
@@ -3068,32 +3372,32 @@
         <v>7</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="65"/>
       <c r="F13" s="63" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G13" s="64"/>
       <c r="H13" s="65"/>
-      <c r="I13" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="57"/>
+      <c r="I13" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="35"/>
+      <c r="K13" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="35"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="35"/>
       <c r="U13" s="60"/>
       <c r="V13" s="61"/>
       <c r="W13" s="61"/>
@@ -3107,32 +3411,32 @@
         <v>8</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="65"/>
       <c r="F14" s="63" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G14" s="64"/>
       <c r="H14" s="65"/>
-      <c r="I14" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="57"/>
+      <c r="I14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="35"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="35"/>
       <c r="U14" s="60"/>
       <c r="V14" s="61"/>
       <c r="W14" s="61"/>
@@ -3146,32 +3450,32 @@
         <v>9</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
       <c r="F15" s="63" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G15" s="64"/>
       <c r="H15" s="65"/>
-      <c r="I15" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="57"/>
+      <c r="I15" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="35"/>
+      <c r="K15" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="35"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="57"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="35"/>
       <c r="U15" s="60"/>
       <c r="V15" s="61"/>
       <c r="W15" s="61"/>
@@ -3185,32 +3489,32 @@
         <v>10</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="65"/>
       <c r="F16" s="60" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="G16" s="61"/>
       <c r="H16" s="62"/>
-      <c r="I16" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" s="57"/>
+      <c r="I16" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="35"/>
+      <c r="K16" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="35"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="35"/>
       <c r="U16" s="60"/>
       <c r="V16" s="61"/>
       <c r="W16" s="61"/>
@@ -3224,32 +3528,32 @@
         <v>11</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
       <c r="E17" s="65"/>
       <c r="F17" s="63" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="G17" s="64"/>
       <c r="H17" s="65"/>
-      <c r="I17" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="57"/>
+      <c r="I17" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="35"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="35"/>
       <c r="U17" s="60"/>
       <c r="V17" s="61"/>
       <c r="W17" s="61"/>
@@ -3263,32 +3567,32 @@
         <v>12</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="E18" s="65"/>
       <c r="F18" s="63" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="G18" s="64"/>
       <c r="H18" s="65"/>
-      <c r="I18" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="57"/>
+      <c r="I18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="35"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="35"/>
       <c r="U18" s="60"/>
       <c r="V18" s="61"/>
       <c r="W18" s="61"/>
@@ -3302,32 +3606,32 @@
         <v>13</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
       <c r="E19" s="65"/>
       <c r="F19" s="63" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G19" s="64"/>
       <c r="H19" s="65"/>
-      <c r="I19" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="57"/>
+      <c r="I19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="35"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="57"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="35"/>
       <c r="U19" s="60"/>
       <c r="V19" s="61"/>
       <c r="W19" s="61"/>
@@ -3341,32 +3645,32 @@
         <v>14</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
       <c r="E20" s="65"/>
       <c r="F20" s="63" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G20" s="64"/>
       <c r="H20" s="65"/>
-      <c r="I20" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" s="57"/>
-      <c r="K20" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="57"/>
+      <c r="I20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="35"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="35"/>
       <c r="U20" s="60"/>
       <c r="V20" s="61"/>
       <c r="W20" s="61"/>
@@ -3380,32 +3684,32 @@
         <v>15</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
       <c r="E21" s="65"/>
       <c r="F21" s="63" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G21" s="64"/>
       <c r="H21" s="65"/>
-      <c r="I21" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="57"/>
-      <c r="K21" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="57"/>
+      <c r="I21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="35"/>
+      <c r="K21" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="35"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="57"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="35"/>
       <c r="U21" s="60"/>
       <c r="V21" s="61"/>
       <c r="W21" s="61"/>
@@ -3414,61 +3718,128 @@
       <c r="Z21" s="61"/>
       <c r="AA21" s="62"/>
     </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>16</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="35"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="62"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>17</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="64"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="K23" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="35"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="62"/>
+    </row>
   </sheetData>
-  <mergeCells count="126">
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
+  <mergeCells count="140">
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U8:AA8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:P9"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
     <mergeCell ref="U10:AA10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -3483,47 +3854,62 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
     <mergeCell ref="U14:AA14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
     <mergeCell ref="U20:AA20"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -3537,11 +3923,21 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="N20:P20"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:AA23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:T22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3549,11 +3945,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE2AC0F-C4AF-466C-B027-8F5E6491BC17}">
-  <dimension ref="A1:AA8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9F0380-6A5A-442D-8FC4-55232AE4172E}">
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3565,68 +3961,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36" t="s">
+      <c r="E1" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
-        <v>45128</v>
-      </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="49">
+        <v>45131</v>
+      </c>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -3635,60 +4031,64 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+      <c r="E3" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="49">
+        <v>45132</v>
+      </c>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -3729,110 +4129,149 @@
       </c>
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="Q6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
-        <v>6</v>
-      </c>
-      <c r="L7" s="54"/>
+      <c r="B7" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+        <v>21</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
-        <v>30</v>
-      </c>
-      <c r="L8" s="54"/>
+      <c r="B8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
+        <v>10</v>
+      </c>
+      <c r="L8" s="38"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="N8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38">
+        <v>1</v>
+      </c>
+      <c r="L9" s="38"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="40">
     <mergeCell ref="U8:AA8"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:H8"/>
@@ -3866,6 +4305,13 @@
     <mergeCell ref="E2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3873,11 +4319,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9F0380-6A5A-442D-8FC4-55232AE4172E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE2AC0F-C4AF-466C-B027-8F5E6491BC17}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:Q1"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3889,68 +4335,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36" t="s">
+      <c r="E1" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
-        <v>45131</v>
-      </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="49">
+        <v>45132</v>
+      </c>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -3959,60 +4405,60 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+      <c r="E3" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4053,107 +4499,107 @@
       </c>
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="Q6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="54"/>
+      <c r="B7" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
+        <v>6</v>
+      </c>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+        <v>21</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
-        <v>10</v>
-      </c>
-      <c r="L8" s="54"/>
+      <c r="B8" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
+        <v>20</v>
+      </c>
+      <c r="L8" s="38"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="N8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -4213,68 +4659,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36" t="s">
+      <c r="E1" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="49">
         <v>45128</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4283,60 +4729,60 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+      <c r="E3" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4377,107 +4823,107 @@
       </c>
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="Q6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
         <v>6</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+        <v>21</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
         <v>30</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="N8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -4521,11 +4967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3129C99F-BFEC-4D85-BCDE-224F34ADAD50}">
-  <dimension ref="A1:AA7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19896A3F-2449-4BCE-ABDC-A60C9290DECE}">
+  <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:Q1"/>
+      <selection activeCell="I10" sqref="I10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4537,68 +4983,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36" t="s">
+      <c r="E1" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
-        <v>45131</v>
-      </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="49">
+        <v>45128</v>
+      </c>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4607,60 +5053,60 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+      <c r="E3" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4701,465 +5147,189 @@
       </c>
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="Q6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-    </row>
-  </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19896A3F-2449-4BCE-ABDC-A60C9290DECE}">
-  <dimension ref="A1:AA28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
-        <v>45128</v>
-      </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="B7" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
-        <v>6</v>
-      </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+      <c r="N7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
+      <c r="B8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
         <v>30</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="N8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54">
+      <c r="B9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38">
         <v>3</v>
       </c>
-      <c r="L9" s="54"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38">
+        <v>1</v>
+      </c>
+      <c r="L10" s="38"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54">
-        <v>1</v>
-      </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
@@ -5172,28 +5342,28 @@
       <c r="D11" s="64"/>
       <c r="E11" s="65"/>
       <c r="F11" s="63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="65"/>
-      <c r="I11" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="57"/>
+      <c r="I11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="35"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57"/>
+      <c r="N11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="34"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
       <c r="U11" s="60"/>
       <c r="V11" s="61"/>
       <c r="W11" s="61"/>
@@ -5206,40 +5376,40 @@
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="L12" s="54"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="38"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="13"/>
@@ -5348,12 +5518,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5365,68 +5535,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36" t="s">
+      <c r="E1" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="49">
         <v>45128</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -5435,60 +5605,60 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+      <c r="E3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -5529,260 +5699,342 @@
       </c>
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="Q6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
+      <c r="B7" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
         <v>6</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+      <c r="N7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
+      <c r="B8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
         <v>30</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="N8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54">
-        <v>1</v>
-      </c>
-      <c r="L9" s="54"/>
+      <c r="B9" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="35"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
+      <c r="N9" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="57"/>
+      <c r="B10" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="35"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="62"/>
-    </row>
-    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N10" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="34"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="62"/>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="67"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A29" s="13"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="75">
     <mergeCell ref="E1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:Y1"/>
@@ -5810,65 +6062,79 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U27:AA27"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E9B359-EFD8-4164-9BD1-98BCA9877C8B}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:L10"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="75" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="F1" s="76"/>
       <c r="G1" s="76"/>
@@ -5882,18 +6148,18 @@
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
       <c r="Q1" s="76"/>
-      <c r="R1" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
+      <c r="R1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -5904,7 +6170,7 @@
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="75" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F2" s="76"/>
       <c r="G2" s="76"/>
@@ -5918,18 +6184,18 @@
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
       <c r="Q2" s="77"/>
-      <c r="R2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
+      <c r="R2" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="49">
         <v>45128</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
       <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -5940,30 +6206,32 @@
       <c r="C3" s="70"/>
       <c r="D3" s="71"/>
       <c r="E3" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
       <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -5971,29 +6239,31 @@
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
       <c r="D4" s="74"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="49">
+        <v>45132</v>
+      </c>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
       <c r="Z4" s="31"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
@@ -6027,197 +6297,197 @@
       </c>
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="Q6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
         <v>6</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+      <c r="N7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
+      <c r="B8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
         <v>6</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="N8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38">
         <v>6</v>
       </c>
-      <c r="L9" s="54"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
+        <v>21</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38">
         <v>300</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -6276,7 +6546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57770D90-52BF-4068-ACA9-8D80725FF005}">
   <dimension ref="A1:AA17"/>
   <sheetViews>
@@ -6287,14 +6557,14 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1" s="76"/>
       <c r="G1" s="76"/>
@@ -6308,18 +6578,18 @@
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
       <c r="Q1" s="76"/>
-      <c r="R1" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
+      <c r="R1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
       <c r="Z1" s="14"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -6330,7 +6600,7 @@
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="76"/>
       <c r="G2" s="76"/>
@@ -6344,18 +6614,18 @@
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
       <c r="Q2" s="77"/>
-      <c r="R2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="43">
+      <c r="R2" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="49">
         <v>45069</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
       <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -6366,32 +6636,32 @@
       <c r="C3" s="70"/>
       <c r="D3" s="71"/>
       <c r="E3" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -6399,31 +6669,31 @@
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
       <c r="D4" s="74"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="36" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="43">
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="49">
         <v>45072</v>
       </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
       <c r="Z4" s="18"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
@@ -6457,203 +6727,203 @@
       </c>
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
-      <c r="Q6" s="49" t="s">
+      <c r="Q6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52" t="s">
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
         <v>6</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
+      <c r="N7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
+      <c r="B8" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38">
         <v>2</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+        <v>21</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54" t="s">
+      <c r="B9" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54" t="s">
+      <c r="L9" s="38"/>
+      <c r="M9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
+      <c r="N9" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54">
+      <c r="B10" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38">
         <v>3</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
+        <v>21</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
@@ -6962,4 +7232,1026 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAFEDA6-4C59-4898-A375-6ED897502BF9}">
+  <dimension ref="A1:AA23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="31"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="49">
+        <v>45128</v>
+      </c>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="31"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="31"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="49">
+        <v>45132</v>
+      </c>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="31"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38">
+        <v>6</v>
+      </c>
+      <c r="L7" s="38"/>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="62"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="33">
+        <v>100</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="62"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="62"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="62"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="62"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="35"/>
+      <c r="K13" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="62"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="35"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="62"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="35"/>
+      <c r="K15" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="35"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="62"/>
+    </row>
+    <row r="16" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="61"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="35"/>
+      <c r="K16" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="35"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="62"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="35"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="62"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="35"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="62"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="35"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="62"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="64"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="35"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="62"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>15</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="35"/>
+      <c r="K21" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="35"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="62"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>16</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="35"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="62"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>17</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="64"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="K23" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="35"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="140">
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:AA23"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\commpany_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A088652F-B058-4480-B66A-3B817C6AD77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8336BB73-D9A8-45C6-B4B6-D13B0A1A7D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="TT_Time" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="160">
   <si>
     <t>テーブル論理名</t>
     <rPh sb="4" eb="6">
@@ -1002,6 +1001,13 @@
   </si>
   <si>
     <t>work_time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:祝日</t>
+    <rPh sb="2" eb="4">
+      <t>シュクジツ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1238,7 +1244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1338,15 +1344,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1357,52 +1354,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1418,6 +1376,60 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1436,12 +1448,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1475,6 +1481,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2575,7 +2584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBDE19C-B165-487B-A0EF-9AB241E95748}">
   <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -2937,12 +2946,12 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="75" t="s">
         <v>131</v>
       </c>
@@ -2958,18 +2967,18 @@
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
       <c r="Q1" s="76"/>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="45" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -2994,18 +3003,18 @@
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
       <c r="Q2" s="77"/>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="49">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45132</v>
       </c>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -3018,28 +3027,28 @@
       <c r="E3" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="42" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -3047,757 +3056,883 @@
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
       <c r="D4" s="74"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="42" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
       <c r="Z4" s="31"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="55" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
         <v>6</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="33" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36" t="s">
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="63" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="33" t="s">
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="33" t="s">
+      <c r="J8" s="38"/>
+      <c r="K8" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="N8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="33" t="s">
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="62"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="64"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="63" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="33">
+      <c r="J9" s="35"/>
+      <c r="K9" s="36">
         <v>100</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="62"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="64"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="63" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="33" t="s">
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="33" t="s">
+      <c r="J10" s="38"/>
+      <c r="K10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="35"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="62"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="64"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="33" t="s">
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="33" t="s">
+      <c r="J11" s="38"/>
+      <c r="K11" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="35"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="62"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="64"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="63" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="33" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="33" t="s">
+      <c r="J12" s="38"/>
+      <c r="K12" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="35"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="62"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="64"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="63" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="33" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="33" t="s">
+      <c r="J13" s="38"/>
+      <c r="K13" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="35"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="62"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="64"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="63" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="33" t="s">
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="33" t="s">
+      <c r="J14" s="38"/>
+      <c r="K14" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L14" s="35"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="62"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="64"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="63" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="33" t="s">
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="33" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="35"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="62"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="64"/>
     </row>
     <row r="16" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="60" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="33" t="s">
+      <c r="G16" s="63"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="33" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="35"/>
+      <c r="L16" s="38"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="62"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="64"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="63" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="33" t="s">
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="33" t="s">
+      <c r="J17" s="38"/>
+      <c r="K17" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="35"/>
+      <c r="L17" s="38"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="62"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="64"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="63" t="s">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="33" t="s">
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="33" t="s">
+      <c r="J18" s="38"/>
+      <c r="K18" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="35"/>
+      <c r="L18" s="38"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="62"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="64"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="63" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="33" t="s">
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="33" t="s">
+      <c r="J19" s="38"/>
+      <c r="K19" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="35"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="62"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="64"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>14</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="63" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="33" t="s">
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="33" t="s">
+      <c r="J20" s="38"/>
+      <c r="K20" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="35"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="62"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="64"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>15</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="63" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="33" t="s">
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="33" t="s">
+      <c r="J21" s="38"/>
+      <c r="K21" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="35"/>
+      <c r="L21" s="38"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="62"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="64"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>16</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="63" t="s">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="33" t="s">
+      <c r="G22" s="66"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="33" t="s">
+      <c r="J22" s="38"/>
+      <c r="K22" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L22" s="35"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="62"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="64"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>17</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="63" t="s">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="33" t="s">
+      <c r="G23" s="66"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="38"/>
+      <c r="K23" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L23" s="35"/>
+      <c r="L23" s="38"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="62"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:AA23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:Q4"/>
     <mergeCell ref="R3:T3"/>
@@ -3812,132 +3947,6 @@
     <mergeCell ref="E2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U22:AA22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="U23:AA23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:T22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3948,8 +3957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9F0380-6A5A-442D-8FC4-55232AE4172E}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3961,68 +3970,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="42" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="45" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="39" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="42" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="49">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45131</v>
       </c>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4031,64 +4040,64 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="42" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="42" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="49">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45132</v>
       </c>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4102,183 +4111,197 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="55" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="33" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
         <v>10</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38">
+      <c r="J9" s="35"/>
+      <c r="K9" s="35">
         <v>1</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
@@ -4293,25 +4316,13 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4335,68 +4346,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="42" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="45" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="39" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="42" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="49">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45132</v>
       </c>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4405,60 +4416,60 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="42" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="42" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4472,137 +4483,1611 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="55" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
         <v>6</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="33" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
         <v>20</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734AC1C0-0241-4BAA-93BF-9ED46739F7DA}">
+  <dimension ref="A1:AA8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
+        <v>45128</v>
+      </c>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
+        <v>6</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
+        <v>30</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19896A3F-2449-4BCE-ABDC-A60C9290DECE}">
+  <dimension ref="A1:AA28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
+        <v>45128</v>
+      </c>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
+        <v>6</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
+        <v>30</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35">
+        <v>3</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35">
+        <v>1</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="37"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="64"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="68">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U28:AA28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:P28"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
+  <dimension ref="A1:AA29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
+        <v>45128</v>
+      </c>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
+        <v>6</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
+        <v>30</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="38"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="38"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="38"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="64"/>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A29" s="13"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="75">
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
     <mergeCell ref="U8:AA8"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:H8"/>
@@ -4642,1480 +6127,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734AC1C0-0241-4BAA-93BF-9ED46739F7DA}">
-  <dimension ref="A1:AA8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="49">
-        <v>45128</v>
-      </c>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
-        <v>6</v>
-      </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
-        <v>30</v>
-      </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19896A3F-2449-4BCE-ABDC-A60C9290DECE}">
-  <dimension ref="A1:AA28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="49">
-        <v>45128</v>
-      </c>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
-        <v>6</v>
-      </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
-        <v>30</v>
-      </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38">
-        <v>3</v>
-      </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38">
-        <v>1</v>
-      </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="34"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="62"/>
-    </row>
-    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A27" s="13"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="67"/>
-      <c r="AA28" s="67"/>
-    </row>
-  </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U28:AA28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
-  <dimension ref="A1:AA29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="49">
-        <v>45128</v>
-      </c>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
-        <v>6</v>
-      </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
-        <v>30</v>
-      </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="34"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="62"/>
-    </row>
-    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A29" s="13"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="67"/>
-      <c r="Z29" s="67"/>
-      <c r="AA29" s="67"/>
-    </row>
-  </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U29:AA29"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E9B359-EFD8-4164-9BD1-98BCA9877C8B}">
   <dimension ref="A1:AA10"/>
@@ -6127,12 +6138,12 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="75" t="s">
         <v>135</v>
       </c>
@@ -6148,18 +6159,18 @@
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
       <c r="Q1" s="76"/>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="45" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -6184,18 +6195,18 @@
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
       <c r="Q2" s="77"/>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="49">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45128</v>
       </c>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -6208,30 +6219,30 @@
       <c r="E3" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="42" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -6239,277 +6250,272 @@
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
       <c r="D4" s="74"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="42" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="49">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45132</v>
       </c>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
       <c r="Z4" s="31"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="55" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
         <v>6</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="33" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36" t="s">
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
         <v>6</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="33" t="s">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38">
+      <c r="J9" s="35"/>
+      <c r="K9" s="35">
         <v>6</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="33" t="s">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38">
+      <c r="J10" s="35"/>
+      <c r="K10" s="35">
         <v>300</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:H8"/>
@@ -6526,20 +6532,25 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6557,12 +6568,12 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="75" t="s">
         <v>40</v>
       </c>
@@ -6578,18 +6589,18 @@
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
       <c r="Q1" s="76"/>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="45" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="14"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -6614,18 +6625,18 @@
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
       <c r="Q2" s="77"/>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="49">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45069</v>
       </c>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -6638,30 +6649,30 @@
       <c r="E3" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="42" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -6669,481 +6680,537 @@
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
       <c r="D4" s="74"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="42" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="49">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45072</v>
       </c>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
       <c r="Z4" s="18"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="55" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
         <v>6</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="33" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
         <v>2</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="33" t="s">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="33" t="s">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="36" t="s">
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38">
+      <c r="J10" s="35"/>
+      <c r="K10" s="35">
         <v>3</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38" t="s">
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="13"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="13"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="13"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="13"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
       <c r="M16" s="13"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="13"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
     <mergeCell ref="U15:AA15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F16:H16"/>
@@ -7158,76 +7225,20 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7238,19 +7249,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAFEDA6-4C59-4898-A375-6ED897502BF9}">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="75" t="s">
         <v>130</v>
       </c>
@@ -7266,18 +7277,18 @@
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
       <c r="Q1" s="76"/>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="45" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -7302,18 +7313,18 @@
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
       <c r="Q2" s="77"/>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="49">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45128</v>
       </c>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -7326,30 +7337,30 @@
       <c r="E3" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="42" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -7357,805 +7368,822 @@
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
       <c r="D4" s="74"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="42" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="49">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45132</v>
       </c>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
       <c r="Z4" s="31"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="55" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
         <v>6</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="33" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36" t="s">
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="63" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="33" t="s">
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="33" t="s">
+      <c r="J8" s="38"/>
+      <c r="K8" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="N8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="33" t="s">
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="62"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="64"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="63" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="38" t="s">
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="33">
+      <c r="J9" s="35"/>
+      <c r="K9" s="36">
         <v>100</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="62"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="64"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="63" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="33" t="s">
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="33" t="s">
+      <c r="J10" s="38"/>
+      <c r="K10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="35"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="62"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="64"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="33" t="s">
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="33" t="s">
+      <c r="J11" s="38"/>
+      <c r="K11" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="35"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="62"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="64"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="63" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="33" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="33" t="s">
+      <c r="J12" s="38"/>
+      <c r="K12" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="35"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="62"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="64"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="63" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="33" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="33" t="s">
+      <c r="J13" s="38"/>
+      <c r="K13" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="35"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="62"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="64"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="63" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="33" t="s">
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="33" t="s">
+      <c r="J14" s="38"/>
+      <c r="K14" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L14" s="35"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="62"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="64"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="63" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="33" t="s">
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="33" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="35"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="62"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="64"/>
     </row>
     <row r="16" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="60" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="33" t="s">
+      <c r="G16" s="63"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="33" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="35"/>
+      <c r="L16" s="38"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="62"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="64"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="63" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="33" t="s">
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="33" t="s">
+      <c r="J17" s="38"/>
+      <c r="K17" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="35"/>
+      <c r="L17" s="38"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="62"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="64"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="63" t="s">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="33" t="s">
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="33" t="s">
+      <c r="J18" s="38"/>
+      <c r="K18" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="35"/>
+      <c r="L18" s="38"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="62"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="64"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="63" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="33" t="s">
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="33" t="s">
+      <c r="J19" s="38"/>
+      <c r="K19" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="35"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="62"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="64"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>14</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="63" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="33" t="s">
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="33" t="s">
+      <c r="J20" s="38"/>
+      <c r="K20" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="35"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="62"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="64"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>15</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="63" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="33" t="s">
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="33" t="s">
+      <c r="J21" s="38"/>
+      <c r="K21" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="35"/>
+      <c r="L21" s="38"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="62"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="64"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>16</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="63" t="s">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="33" t="s">
+      <c r="G22" s="66"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="33" t="s">
+      <c r="J22" s="38"/>
+      <c r="K22" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L22" s="35"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="62"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="64"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>17</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="63" t="s">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="33" t="s">
+      <c r="G23" s="66"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="38"/>
+      <c r="K23" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L23" s="35"/>
+      <c r="L23" s="38"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="62"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:AA23"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
     <mergeCell ref="U13:AA13"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:H13"/>
@@ -8177,79 +8205,62 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
     <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
     <mergeCell ref="Q14:T14"/>
     <mergeCell ref="U14:AA14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
     <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="U22:AA22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="U23:AA23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\commpany_money\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\commpany_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D68CC3-B8C4-44C9-8BDB-CC2FC86B9399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BF8DAD-34E3-45DA-9EF8-1DEB846F5E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="9" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="164">
   <si>
     <t>テーブル論理名</t>
     <rPh sb="4" eb="6">
@@ -132,10 +132,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザーマスタ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザーID</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -204,13 +200,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
       <t>サクセイシャ</t>
@@ -242,13 +231,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>YYMMnn(nnは連番)</t>
-    <rPh sb="10" eb="12">
-      <t>レンバン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>update_date</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -264,16 +246,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザーを管理・登録するためのテーブル</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>TP_dateから取得</t>
     <rPh sb="9" eb="11">
       <t>シュトク</t>
@@ -422,43 +394,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>勤務地マスタ</t>
-    <rPh sb="0" eb="3">
-      <t>キンムチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>勤務地を管理・登録するためのテーブル</t>
-    <rPh sb="0" eb="3">
-      <t>キンムチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>勤務地ID</t>
-    <rPh sb="0" eb="3">
-      <t>キンムチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>勤務地名</t>
-    <rPh sb="0" eb="3">
-      <t>キンムチ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>有休数</t>
     <rPh sb="0" eb="2">
       <t>ユウキュウ</t>
@@ -473,29 +408,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザー勤務先マスタ</t>
-    <rPh sb="4" eb="7">
-      <t>キンムサキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザーの勤務先を追加、変更、削除するためのテーブル</t>
-    <rPh sb="5" eb="8">
-      <t>キンムサキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>note</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -507,22 +419,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザーの勤務時間を追加、変更、削除するためのテーブル</t>
-    <rPh sb="5" eb="9">
-      <t>キンムジカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>年月日</t>
     <rPh sb="0" eb="3">
       <t>ネンガッピ</t>
@@ -1069,6 +965,94 @@
       <t>ドウジョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員マスタ</t>
+  </si>
+  <si>
+    <t>社員を管理・登録するためのテーブル</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>社員勤務先マスタ</t>
+    <rPh sb="2" eb="5">
+      <t>キンムサキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員の勤務先を追加、変更、削除するためのテーブル</t>
+    <rPh sb="3" eb="6">
+      <t>キンムサキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員の勤務時間を追加、変更、削除するためのテーブル</t>
+    <rPh sb="3" eb="7">
+      <t>キンムジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員番号</t>
+  </si>
+  <si>
+    <t>staff_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>勤務先マスタ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>勤務先を管理・登録するためのテーブル</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>勤務先ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>勤務先</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -2660,20 +2644,20 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
@@ -2702,13 +2686,13 @@
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
       <c r="C2" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="22">
         <v>45131</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="22">
         <v>45132</v>
@@ -2739,249 +2723,249 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B3" s="30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B5" s="29" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B6" s="26" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B7" s="25" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B8" s="25" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B9" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B10" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B11" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="D12" s="25" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="F13" s="25" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="29" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B15" s="26" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B16" s="25" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="25" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="25" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="25" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F22" s="25" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="29" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="26" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="25" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H27" s="27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E289607-CB43-48F6-8EBA-5186E937FDC9}">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U7" sqref="U7:AA7"/>
     </sheetView>
   </sheetViews>
@@ -3013,7 +2997,7 @@
       <c r="C1" s="48"/>
       <c r="D1" s="49"/>
       <c r="E1" s="76" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F1" s="77"/>
       <c r="G1" s="77"/>
@@ -3028,12 +3012,12 @@
       <c r="P1" s="77"/>
       <c r="Q1" s="77"/>
       <c r="R1" s="43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S1" s="44"/>
       <c r="T1" s="45"/>
       <c r="U1" s="46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V1" s="46"/>
       <c r="W1" s="46"/>
@@ -3049,7 +3033,7 @@
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
       <c r="E2" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F2" s="77"/>
       <c r="G2" s="77"/>
@@ -3064,7 +3048,7 @@
       <c r="P2" s="77"/>
       <c r="Q2" s="78"/>
       <c r="R2" s="43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="45"/>
@@ -3085,7 +3069,7 @@
       <c r="C3" s="71"/>
       <c r="D3" s="72"/>
       <c r="E3" s="79" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
@@ -3100,7 +3084,7 @@
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S3" s="44"/>
       <c r="T3" s="45"/>
@@ -3130,7 +3114,7 @@
       <c r="P4" s="54"/>
       <c r="Q4" s="54"/>
       <c r="R4" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" s="44"/>
       <c r="T4" s="45"/>
@@ -3193,18 +3177,18 @@
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39">
@@ -3215,19 +3199,17 @@
         <v>11</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
       <c r="T7" s="35"/>
-      <c r="U7" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="U7" s="37"/>
       <c r="V7" s="37"/>
       <c r="W7" s="37"/>
       <c r="X7" s="37"/>
@@ -3240,34 +3222,34 @@
         <v>2</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
       <c r="E8" s="66"/>
       <c r="F8" s="64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="66"/>
       <c r="I8" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="33" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="L8" s="35"/>
       <c r="M8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="34"/>
       <c r="P8" s="35"/>
       <c r="Q8" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
@@ -3285,18 +3267,18 @@
         <v>3</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
       <c r="E9" s="66"/>
       <c r="F9" s="64" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="66"/>
       <c r="I9" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="39"/>
       <c r="K9" s="33">
@@ -3324,22 +3306,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
       <c r="E10" s="66"/>
       <c r="F10" s="64" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G10" s="65"/>
       <c r="H10" s="66"/>
       <c r="I10" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="2"/>
@@ -3363,22 +3345,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="2"/>
@@ -3402,22 +3384,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="65"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G12" s="65"/>
       <c r="H12" s="66"/>
       <c r="I12" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L12" s="35"/>
       <c r="M12" s="2"/>
@@ -3441,22 +3423,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="65"/>
       <c r="E13" s="66"/>
       <c r="F13" s="64" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G13" s="65"/>
       <c r="H13" s="66"/>
       <c r="I13" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J13" s="35"/>
       <c r="K13" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L13" s="35"/>
       <c r="M13" s="2"/>
@@ -3480,22 +3462,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
       <c r="E14" s="66"/>
       <c r="F14" s="64" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G14" s="65"/>
       <c r="H14" s="66"/>
       <c r="I14" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J14" s="35"/>
       <c r="K14" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L14" s="35"/>
       <c r="M14" s="2"/>
@@ -3519,22 +3501,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="65"/>
       <c r="E15" s="66"/>
       <c r="F15" s="64" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G15" s="65"/>
       <c r="H15" s="66"/>
       <c r="I15" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L15" s="35"/>
       <c r="M15" s="2"/>
@@ -3558,22 +3540,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="66"/>
       <c r="F16" s="61" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G16" s="62"/>
       <c r="H16" s="63"/>
       <c r="I16" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L16" s="35"/>
       <c r="M16" s="2"/>
@@ -3597,22 +3579,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
       <c r="E17" s="66"/>
       <c r="F17" s="64" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G17" s="65"/>
       <c r="H17" s="66"/>
       <c r="I17" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L17" s="35"/>
       <c r="M17" s="2"/>
@@ -3636,22 +3618,22 @@
         <v>12</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
       <c r="E18" s="66"/>
       <c r="F18" s="64" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G18" s="65"/>
       <c r="H18" s="66"/>
       <c r="I18" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L18" s="35"/>
       <c r="M18" s="2"/>
@@ -3675,22 +3657,22 @@
         <v>13</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66"/>
       <c r="F19" s="64" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G19" s="65"/>
       <c r="H19" s="66"/>
       <c r="I19" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L19" s="35"/>
       <c r="M19" s="2"/>
@@ -3714,22 +3696,22 @@
         <v>14</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="65"/>
       <c r="E20" s="66"/>
       <c r="F20" s="64" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G20" s="65"/>
       <c r="H20" s="66"/>
       <c r="I20" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J20" s="35"/>
       <c r="K20" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L20" s="35"/>
       <c r="M20" s="2"/>
@@ -3753,24 +3735,24 @@
         <v>15</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="65"/>
       <c r="E21" s="66"/>
       <c r="F21" s="64" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G21" s="65"/>
       <c r="H21" s="66"/>
-      <c r="I21" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="L21" s="35"/>
+      <c r="I21" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39">
+        <v>2</v>
+      </c>
+      <c r="L21" s="39"/>
       <c r="M21" s="2"/>
       <c r="N21" s="33"/>
       <c r="O21" s="34"/>
@@ -3792,22 +3774,22 @@
         <v>16</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="65"/>
       <c r="E22" s="66"/>
       <c r="F22" s="64" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G22" s="65"/>
       <c r="H22" s="66"/>
       <c r="I22" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J22" s="35"/>
       <c r="K22" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L22" s="35"/>
       <c r="M22" s="2"/>
@@ -3831,22 +3813,22 @@
         <v>17</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="65"/>
       <c r="E23" s="66"/>
       <c r="F23" s="64" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G23" s="65"/>
       <c r="H23" s="66"/>
       <c r="I23" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L23" s="35"/>
       <c r="M23" s="2"/>
@@ -4031,7 +4013,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
       <c r="E1" s="40" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
@@ -4046,12 +4028,12 @@
       <c r="P1" s="41"/>
       <c r="Q1" s="42"/>
       <c r="R1" s="43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S1" s="44"/>
       <c r="T1" s="45"/>
       <c r="U1" s="46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V1" s="46"/>
       <c r="W1" s="46"/>
@@ -4066,7 +4048,7 @@
       <c r="C2" s="48"/>
       <c r="D2" s="49"/>
       <c r="E2" s="40" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
@@ -4081,7 +4063,7 @@
       <c r="P2" s="41"/>
       <c r="Q2" s="42"/>
       <c r="R2" s="43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="45"/>
@@ -4101,7 +4083,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="51" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
@@ -4116,12 +4098,12 @@
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S3" s="44"/>
       <c r="T3" s="45"/>
       <c r="U3" s="46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
@@ -4147,7 +4129,7 @@
       <c r="P4" s="54"/>
       <c r="Q4" s="54"/>
       <c r="R4" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" s="44"/>
       <c r="T4" s="45"/>
@@ -4219,34 +4201,34 @@
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
@@ -4264,18 +4246,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="39">
@@ -4284,7 +4266,7 @@
       <c r="L8" s="39"/>
       <c r="M8" s="2"/>
       <c r="N8" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -4293,7 +4275,7 @@
       <c r="S8" s="34"/>
       <c r="T8" s="35"/>
       <c r="U8" s="37" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
@@ -4307,22 +4289,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="39" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J9" s="39"/>
       <c r="K9" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="2"/>
@@ -4334,7 +4316,7 @@
       <c r="S9" s="34"/>
       <c r="T9" s="35"/>
       <c r="U9" s="36" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
@@ -4395,8 +4377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE2AC0F-C4AF-466C-B027-8F5E6491BC17}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4409,7 +4391,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
       <c r="E1" s="40" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
@@ -4424,12 +4406,12 @@
       <c r="P1" s="41"/>
       <c r="Q1" s="42"/>
       <c r="R1" s="43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S1" s="44"/>
       <c r="T1" s="45"/>
       <c r="U1" s="46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V1" s="46"/>
       <c r="W1" s="46"/>
@@ -4444,7 +4426,7 @@
       <c r="C2" s="48"/>
       <c r="D2" s="49"/>
       <c r="E2" s="40" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
@@ -4459,7 +4441,7 @@
       <c r="P2" s="41"/>
       <c r="Q2" s="42"/>
       <c r="R2" s="43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="45"/>
@@ -4479,7 +4461,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="51" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
@@ -4494,7 +4476,7 @@
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S3" s="44"/>
       <c r="T3" s="45"/>
@@ -4523,7 +4505,7 @@
       <c r="P4" s="54"/>
       <c r="Q4" s="54"/>
       <c r="R4" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" s="44"/>
       <c r="T4" s="45"/>
@@ -4593,18 +4575,18 @@
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39">
@@ -4612,15 +4594,15 @@
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
@@ -4638,18 +4620,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="39">
@@ -4658,7 +4640,7 @@
       <c r="L8" s="39"/>
       <c r="M8" s="2"/>
       <c r="N8" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -4733,7 +4715,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
       <c r="E1" s="40" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
@@ -4748,12 +4730,12 @@
       <c r="P1" s="41"/>
       <c r="Q1" s="42"/>
       <c r="R1" s="43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S1" s="44"/>
       <c r="T1" s="45"/>
       <c r="U1" s="46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V1" s="46"/>
       <c r="W1" s="46"/>
@@ -4768,7 +4750,7 @@
       <c r="C2" s="48"/>
       <c r="D2" s="49"/>
       <c r="E2" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
@@ -4783,7 +4765,7 @@
       <c r="P2" s="41"/>
       <c r="Q2" s="42"/>
       <c r="R2" s="43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="45"/>
@@ -4803,7 +4785,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
@@ -4818,7 +4800,7 @@
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S3" s="44"/>
       <c r="T3" s="45"/>
@@ -4847,7 +4829,7 @@
       <c r="P4" s="54"/>
       <c r="Q4" s="54"/>
       <c r="R4" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" s="44"/>
       <c r="T4" s="45"/>
@@ -4917,18 +4899,18 @@
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39">
@@ -4936,15 +4918,15 @@
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
@@ -4962,18 +4944,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="39">
@@ -4982,7 +4964,7 @@
       <c r="L8" s="39"/>
       <c r="M8" s="2"/>
       <c r="N8" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -5044,7 +5026,7 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U11" sqref="U11:AA11"/>
+      <selection activeCell="K6" sqref="K6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5057,7 +5039,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
       <c r="E1" s="40" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
@@ -5072,12 +5054,12 @@
       <c r="P1" s="41"/>
       <c r="Q1" s="42"/>
       <c r="R1" s="43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S1" s="44"/>
       <c r="T1" s="45"/>
       <c r="U1" s="46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V1" s="46"/>
       <c r="W1" s="46"/>
@@ -5092,7 +5074,7 @@
       <c r="C2" s="48"/>
       <c r="D2" s="49"/>
       <c r="E2" s="40" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
@@ -5107,7 +5089,7 @@
       <c r="P2" s="41"/>
       <c r="Q2" s="42"/>
       <c r="R2" s="43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="45"/>
@@ -5127,7 +5109,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="51" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
@@ -5142,7 +5124,7 @@
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S3" s="44"/>
       <c r="T3" s="45"/>
@@ -5171,7 +5153,7 @@
       <c r="P4" s="54"/>
       <c r="Q4" s="54"/>
       <c r="R4" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" s="44"/>
       <c r="T4" s="45"/>
@@ -5241,18 +5223,18 @@
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39">
@@ -5263,12 +5245,12 @@
         <v>11</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
@@ -5286,18 +5268,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="39">
@@ -5306,7 +5288,7 @@
       <c r="L8" s="39"/>
       <c r="M8" s="2"/>
       <c r="N8" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -5327,18 +5309,18 @@
         <v>3</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="39" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J9" s="39"/>
       <c r="K9" s="39">
@@ -5366,22 +5348,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="39" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J10" s="39"/>
       <c r="K10" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="2"/>
@@ -5393,7 +5375,7 @@
       <c r="S10" s="34"/>
       <c r="T10" s="35"/>
       <c r="U10" s="37" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
@@ -5407,27 +5389,27 @@
         <v>5</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="65"/>
       <c r="E11" s="66"/>
       <c r="F11" s="64" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G11" s="65"/>
       <c r="H11" s="66"/>
       <c r="I11" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="33" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="2"/>
       <c r="N11" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O11" s="34"/>
       <c r="P11" s="35"/>
@@ -5448,22 +5430,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="39" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="L12" s="39"/>
       <c r="M12" s="2"/>
@@ -5594,7 +5576,7 @@
   <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5607,7 +5589,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
       <c r="E1" s="40" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
@@ -5622,12 +5604,12 @@
       <c r="P1" s="41"/>
       <c r="Q1" s="42"/>
       <c r="R1" s="43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S1" s="44"/>
       <c r="T1" s="45"/>
       <c r="U1" s="46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V1" s="46"/>
       <c r="W1" s="46"/>
@@ -5642,7 +5624,7 @@
       <c r="C2" s="48"/>
       <c r="D2" s="49"/>
       <c r="E2" s="40" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
@@ -5657,7 +5639,7 @@
       <c r="P2" s="41"/>
       <c r="Q2" s="42"/>
       <c r="R2" s="43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="45"/>
@@ -5677,7 +5659,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="51" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
@@ -5692,11 +5674,13 @@
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S3" s="44"/>
       <c r="T3" s="45"/>
-      <c r="U3" s="46"/>
+      <c r="U3" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
       <c r="X3" s="46"/>
@@ -5721,11 +5705,13 @@
       <c r="P4" s="54"/>
       <c r="Q4" s="54"/>
       <c r="R4" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" s="44"/>
       <c r="T4" s="45"/>
-      <c r="U4" s="50"/>
+      <c r="U4" s="50">
+        <v>45132</v>
+      </c>
       <c r="V4" s="55"/>
       <c r="W4" s="55"/>
       <c r="X4" s="55"/>
@@ -5791,18 +5777,18 @@
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39">
@@ -5813,12 +5799,12 @@
         <v>11</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
@@ -5836,18 +5822,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="39">
@@ -5856,7 +5842,7 @@
       <c r="L8" s="39"/>
       <c r="M8" s="2"/>
       <c r="N8" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -5877,27 +5863,27 @@
         <v>3</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J9" s="35"/>
       <c r="K9" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="2"/>
       <c r="N9" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
@@ -5918,27 +5904,27 @@
         <v>4</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="2"/>
       <c r="N10" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
@@ -5959,27 +5945,27 @@
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="2"/>
       <c r="N11" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O11" s="39"/>
       <c r="P11" s="39"/>
@@ -6000,27 +5986,27 @@
         <v>6</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="65"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G12" s="65"/>
       <c r="H12" s="66"/>
       <c r="I12" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="33" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="L12" s="35"/>
       <c r="M12" s="2"/>
       <c r="N12" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="35"/>
@@ -6041,22 +6027,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" s="39"/>
       <c r="K13" s="39" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="L13" s="39"/>
       <c r="M13" s="2"/>
@@ -6192,7 +6178,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:L10"/>
+      <selection activeCell="F7" sqref="F7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6205,7 +6191,7 @@
       <c r="C1" s="48"/>
       <c r="D1" s="49"/>
       <c r="E1" s="76" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F1" s="77"/>
       <c r="G1" s="77"/>
@@ -6220,12 +6206,12 @@
       <c r="P1" s="77"/>
       <c r="Q1" s="77"/>
       <c r="R1" s="43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S1" s="44"/>
       <c r="T1" s="45"/>
       <c r="U1" s="46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V1" s="46"/>
       <c r="W1" s="46"/>
@@ -6241,7 +6227,7 @@
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
       <c r="E2" s="76" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="F2" s="77"/>
       <c r="G2" s="77"/>
@@ -6256,7 +6242,7 @@
       <c r="P2" s="77"/>
       <c r="Q2" s="78"/>
       <c r="R2" s="43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="45"/>
@@ -6277,7 +6263,7 @@
       <c r="C3" s="71"/>
       <c r="D3" s="72"/>
       <c r="E3" s="79" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
@@ -6292,12 +6278,12 @@
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S3" s="44"/>
       <c r="T3" s="45"/>
       <c r="U3" s="46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
@@ -6324,7 +6310,7 @@
       <c r="P4" s="54"/>
       <c r="Q4" s="54"/>
       <c r="R4" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" s="44"/>
       <c r="T4" s="45"/>
@@ -6389,18 +6375,18 @@
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39">
@@ -6411,12 +6397,12 @@
         <v>11</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
@@ -6434,18 +6420,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="39">
@@ -6456,12 +6442,12 @@
         <v>11</v>
       </c>
       <c r="N8" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
@@ -6479,18 +6465,18 @@
         <v>3</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="39"/>
       <c r="K9" s="39">
@@ -6498,15 +6484,15 @@
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -6530,12 +6516,12 @@
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="39"/>
       <c r="K10" s="39">
@@ -6633,7 +6619,7 @@
       <c r="C1" s="48"/>
       <c r="D1" s="49"/>
       <c r="E1" s="76" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F1" s="77"/>
       <c r="G1" s="77"/>
@@ -6648,12 +6634,12 @@
       <c r="P1" s="77"/>
       <c r="Q1" s="77"/>
       <c r="R1" s="43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S1" s="44"/>
       <c r="T1" s="45"/>
       <c r="U1" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V1" s="46"/>
       <c r="W1" s="46"/>
@@ -6669,7 +6655,7 @@
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
       <c r="E2" s="76" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F2" s="77"/>
       <c r="G2" s="77"/>
@@ -6684,7 +6670,7 @@
       <c r="P2" s="77"/>
       <c r="Q2" s="78"/>
       <c r="R2" s="43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="45"/>
@@ -6705,7 +6691,7 @@
       <c r="C3" s="71"/>
       <c r="D3" s="72"/>
       <c r="E3" s="79" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
@@ -6720,12 +6706,12 @@
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S3" s="44"/>
       <c r="T3" s="45"/>
       <c r="U3" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
@@ -6752,7 +6738,7 @@
       <c r="P4" s="54"/>
       <c r="Q4" s="54"/>
       <c r="R4" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" s="44"/>
       <c r="T4" s="45"/>
@@ -6817,18 +6803,18 @@
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39">
@@ -6839,12 +6825,12 @@
         <v>11</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
@@ -6862,18 +6848,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="39">
@@ -6881,15 +6867,15 @@
       </c>
       <c r="L8" s="39"/>
       <c r="M8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N8" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
@@ -6907,40 +6893,40 @@
         <v>3</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="39"/>
       <c r="K9" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
       <c r="T9" s="35"/>
       <c r="U9" s="37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
@@ -6954,18 +6940,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="39"/>
       <c r="K10" s="39">
@@ -6973,15 +6959,15 @@
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
@@ -7307,8 +7293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAFEDA6-4C59-4898-A375-6ED897502BF9}">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7:AA7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7321,7 +7307,7 @@
       <c r="C1" s="48"/>
       <c r="D1" s="49"/>
       <c r="E1" s="76" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F1" s="77"/>
       <c r="G1" s="77"/>
@@ -7336,12 +7322,12 @@
       <c r="P1" s="77"/>
       <c r="Q1" s="77"/>
       <c r="R1" s="43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S1" s="44"/>
       <c r="T1" s="45"/>
       <c r="U1" s="46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V1" s="46"/>
       <c r="W1" s="46"/>
@@ -7357,7 +7343,7 @@
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
       <c r="E2" s="76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F2" s="77"/>
       <c r="G2" s="77"/>
@@ -7372,7 +7358,7 @@
       <c r="P2" s="77"/>
       <c r="Q2" s="78"/>
       <c r="R2" s="43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="45"/>
@@ -7393,7 +7379,7 @@
       <c r="C3" s="71"/>
       <c r="D3" s="72"/>
       <c r="E3" s="79" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
@@ -7408,12 +7394,12 @@
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S3" s="44"/>
       <c r="T3" s="45"/>
       <c r="U3" s="46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
@@ -7440,7 +7426,7 @@
       <c r="P4" s="54"/>
       <c r="Q4" s="54"/>
       <c r="R4" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" s="44"/>
       <c r="T4" s="45"/>
@@ -7505,18 +7491,18 @@
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39">
@@ -7527,12 +7513,12 @@
         <v>11</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
@@ -7550,34 +7536,34 @@
         <v>2</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
       <c r="E8" s="66"/>
       <c r="F8" s="64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="66"/>
       <c r="I8" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="33" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="L8" s="35"/>
       <c r="M8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="34"/>
       <c r="P8" s="35"/>
       <c r="Q8" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
@@ -7595,18 +7581,18 @@
         <v>3</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
       <c r="E9" s="66"/>
       <c r="F9" s="64" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="66"/>
       <c r="I9" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="39"/>
       <c r="K9" s="33">
@@ -7634,22 +7620,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
       <c r="E10" s="66"/>
       <c r="F10" s="64" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G10" s="65"/>
       <c r="H10" s="66"/>
       <c r="I10" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="2"/>
@@ -7673,22 +7659,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="2"/>
@@ -7712,22 +7698,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="65"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G12" s="65"/>
       <c r="H12" s="66"/>
       <c r="I12" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L12" s="35"/>
       <c r="M12" s="2"/>
@@ -7751,22 +7737,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="65"/>
       <c r="E13" s="66"/>
       <c r="F13" s="64" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G13" s="65"/>
       <c r="H13" s="66"/>
       <c r="I13" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J13" s="35"/>
       <c r="K13" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L13" s="35"/>
       <c r="M13" s="2"/>
@@ -7790,22 +7776,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
       <c r="E14" s="66"/>
       <c r="F14" s="64" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G14" s="65"/>
       <c r="H14" s="66"/>
       <c r="I14" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J14" s="35"/>
       <c r="K14" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L14" s="35"/>
       <c r="M14" s="2"/>
@@ -7829,22 +7815,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="65"/>
       <c r="E15" s="66"/>
       <c r="F15" s="64" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G15" s="65"/>
       <c r="H15" s="66"/>
       <c r="I15" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L15" s="35"/>
       <c r="M15" s="2"/>
@@ -7868,22 +7854,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="66"/>
       <c r="F16" s="61" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G16" s="62"/>
       <c r="H16" s="63"/>
       <c r="I16" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L16" s="35"/>
       <c r="M16" s="2"/>
@@ -7907,22 +7893,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
       <c r="E17" s="66"/>
       <c r="F17" s="64" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G17" s="65"/>
       <c r="H17" s="66"/>
       <c r="I17" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L17" s="35"/>
       <c r="M17" s="2"/>
@@ -7946,22 +7932,22 @@
         <v>12</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
       <c r="E18" s="66"/>
       <c r="F18" s="64" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G18" s="65"/>
       <c r="H18" s="66"/>
       <c r="I18" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L18" s="35"/>
       <c r="M18" s="2"/>
@@ -7985,22 +7971,22 @@
         <v>13</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66"/>
       <c r="F19" s="64" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G19" s="65"/>
       <c r="H19" s="66"/>
       <c r="I19" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L19" s="35"/>
       <c r="M19" s="2"/>
@@ -8024,22 +8010,22 @@
         <v>14</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="65"/>
       <c r="E20" s="66"/>
       <c r="F20" s="64" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G20" s="65"/>
       <c r="H20" s="66"/>
       <c r="I20" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J20" s="35"/>
       <c r="K20" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L20" s="35"/>
       <c r="M20" s="2"/>
@@ -8063,24 +8049,24 @@
         <v>15</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="65"/>
       <c r="E21" s="66"/>
       <c r="F21" s="64" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G21" s="65"/>
       <c r="H21" s="66"/>
-      <c r="I21" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="L21" s="35"/>
+      <c r="I21" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39">
+        <v>2</v>
+      </c>
+      <c r="L21" s="39"/>
       <c r="M21" s="2"/>
       <c r="N21" s="33"/>
       <c r="O21" s="34"/>
@@ -8102,22 +8088,22 @@
         <v>16</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="65"/>
       <c r="E22" s="66"/>
       <c r="F22" s="64" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G22" s="65"/>
       <c r="H22" s="66"/>
       <c r="I22" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J22" s="35"/>
       <c r="K22" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L22" s="35"/>
       <c r="M22" s="2"/>
@@ -8129,7 +8115,7 @@
       <c r="S22" s="34"/>
       <c r="T22" s="35"/>
       <c r="U22" s="61" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="V22" s="62"/>
       <c r="W22" s="62"/>
@@ -8143,22 +8129,22 @@
         <v>17</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="65"/>
       <c r="E23" s="66"/>
       <c r="F23" s="64" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G23" s="65"/>
       <c r="H23" s="66"/>
       <c r="I23" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L23" s="35"/>
       <c r="M23" s="2"/>
@@ -8170,7 +8156,7 @@
       <c r="S23" s="34"/>
       <c r="T23" s="35"/>
       <c r="U23" s="61" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="V23" s="62"/>
       <c r="W23" s="62"/>

--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\commpany_money\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\commpany_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F6A29E-7683-4C9A-9D8F-92E17A96312B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2FF0D3-A18E-45C2-8E2B-14FB3FC78473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="174">
   <si>
     <t>テーブル論理名</t>
     <rPh sb="4" eb="6">
@@ -1069,6 +1069,75 @@
   </si>
   <si>
     <t>overtime_nosat_night</t>
+  </si>
+  <si>
+    <t>契約上の勤務開始時間</t>
+    <rPh sb="0" eb="3">
+      <t>ケイヤクジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="10">
+      <t>キンムカイシジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>契約上の勤務終了時間</t>
+    <rPh sb="0" eb="3">
+      <t>ケイヤクジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>契約上の勤務時間</t>
+    <rPh sb="0" eb="3">
+      <t>ケイヤクジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>残業開始時間</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>overtime_start</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(今後、交通費は履歴管理できるようにしたい)</t>
+    <rPh sb="1" eb="3">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウツウヒ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>リレキカンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1404,6 +1473,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1414,13 +1495,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1436,63 +1556,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1511,6 +1574,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2866,7 +2935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBDE19C-B165-487B-A0EF-9AB241E95748}">
   <dimension ref="A1:AI28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3245,12 +3314,12 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="76" t="s">
         <v>113</v>
       </c>
@@ -3266,18 +3335,18 @@
       <c r="O1" s="77"/>
       <c r="P1" s="77"/>
       <c r="Q1" s="77"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -3302,18 +3371,18 @@
       <c r="O2" s="77"/>
       <c r="P2" s="77"/>
       <c r="Q2" s="78"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="50">
         <v>45132</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
       <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -3326,28 +3395,28 @@
       <c r="E3" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
       <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -3355,759 +3424,885 @@
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
       <c r="D4" s="75"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
       <c r="Z4" s="31"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="39" t="s">
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="42" t="s">
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39">
         <v>6</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36" t="s">
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="66" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="36" t="s">
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="36" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="36" t="s">
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="65"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="63"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="66" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="35" t="s">
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36">
+      <c r="J9" s="39"/>
+      <c r="K9" s="33">
         <v>100</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="65"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="63"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="66" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="36" t="s">
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="36" t="s">
+      <c r="J10" s="35"/>
+      <c r="K10" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="65"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="63"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="36" t="s">
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="36" t="s">
+      <c r="J11" s="35"/>
+      <c r="K11" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="65"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="63"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="66" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="36" t="s">
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="36" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="65"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="63"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="66" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="36" t="s">
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="36" t="s">
+      <c r="J13" s="35"/>
+      <c r="K13" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="38"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="65"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="63"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="66" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="36" t="s">
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="36" t="s">
+      <c r="J14" s="35"/>
+      <c r="K14" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="65"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="63"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="66" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="36" t="s">
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="36" t="s">
+      <c r="J15" s="35"/>
+      <c r="K15" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="38"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="65"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="63"/>
     </row>
     <row r="16" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="63" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="36" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="36" t="s">
+      <c r="J16" s="35"/>
+      <c r="K16" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="65"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="63"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="66" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="36" t="s">
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="36" t="s">
+      <c r="J17" s="35"/>
+      <c r="K17" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L17" s="38"/>
+      <c r="L17" s="35"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="65"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="66" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="36" t="s">
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="36" t="s">
+      <c r="J18" s="35"/>
+      <c r="K18" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="38"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="65"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="66" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="36" t="s">
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="36" t="s">
+      <c r="J19" s="35"/>
+      <c r="K19" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="38"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="65"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="63"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>14</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="66" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="36" t="s">
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="36" t="s">
+      <c r="J20" s="35"/>
+      <c r="K20" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L20" s="38"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="65"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="63"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>15</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="66" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="35" t="s">
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35">
+      <c r="J21" s="39"/>
+      <c r="K21" s="39">
         <v>2</v>
       </c>
-      <c r="L21" s="35"/>
+      <c r="L21" s="39"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="65"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="63"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>16</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="66" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="36" t="s">
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="36" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="38"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="63" t="s">
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="65"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="63"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>17</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="66" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="36" t="s">
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="38"/>
-      <c r="K23" s="36" t="s">
+      <c r="J23" s="35"/>
+      <c r="K23" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="38"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="63" t="s">
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="65"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:T20"/>
     <mergeCell ref="U22:AA22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="F23:H23"/>
@@ -4122,132 +4317,6 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="N22:P22"/>
     <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4271,68 +4340,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="50">
         <v>45131</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4341,64 +4410,64 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="50">
         <v>45132</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4412,199 +4481,187 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="39" t="s">
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="42" t="s">
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36" t="s">
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35" t="s">
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35">
+      <c r="J8" s="39"/>
+      <c r="K8" s="39">
         <v>3</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="33" t="s">
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35" t="s">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35" t="s">
+      <c r="J9" s="39"/>
+      <c r="K9" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="60" t="s">
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
@@ -4619,13 +4676,25 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4649,68 +4718,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="50">
         <v>45132</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4719,60 +4788,60 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4786,1469 +4855,137 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="39" t="s">
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="42" t="s">
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39">
         <v>2</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36" t="s">
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35" t="s">
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35">
+      <c r="J8" s="39"/>
+      <c r="K8" s="39">
         <v>20</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734AC1C0-0241-4BAA-93BF-9ED46739F7DA}">
-  <dimension ref="A1:AA8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
-        <v>45128</v>
-      </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35">
-        <v>4</v>
-      </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35">
-        <v>20</v>
-      </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19896A3F-2449-4BCE-ABDC-A60C9290DECE}">
-  <dimension ref="A1:AA28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
-        <v>45128</v>
-      </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35">
-        <v>6</v>
-      </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35">
-        <v>30</v>
-      </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35">
-        <v>2</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="65"/>
-    </row>
-    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A27" s="13"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="62"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="62"/>
-      <c r="AA28" s="62"/>
-    </row>
-  </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U28:AA28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:P28"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
-  <dimension ref="A1:AA26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
-        <v>45128</v>
-      </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
-        <v>45133</v>
-      </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35">
-        <v>4</v>
-      </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35">
-        <v>30</v>
-      </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="65"/>
-    </row>
-    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="62"/>
-    </row>
-  </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="U26:AA26"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
     <mergeCell ref="U8:AA8"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:H8"/>
@@ -6288,23 +5025,1355 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E9B359-EFD8-4164-9BD1-98BCA9877C8B}">
-  <dimension ref="A1:AA15"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734AC1C0-0241-4BAA-93BF-9ED46739F7DA}">
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="50">
+        <v>45128</v>
+      </c>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="60"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39">
+        <v>4</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39">
+        <v>20</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19896A3F-2449-4BCE-ABDC-A60C9290DECE}">
+  <dimension ref="A1:AA28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="50">
+        <v>45128</v>
+      </c>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="60"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39">
+        <v>6</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39">
+        <v>30</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39">
+        <v>2</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="34"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="63"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="68">
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U28:AA28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
+  <dimension ref="A1:AA26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="50">
+        <v>45128</v>
+      </c>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="50">
+        <v>45133</v>
+      </c>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="60"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39">
+        <v>4</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39">
+        <v>30</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="34"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="63"/>
+    </row>
+    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A26" s="13"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U26:AA26"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E9B359-EFD8-4164-9BD1-98BCA9877C8B}">
+  <dimension ref="A1:AA16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11:AA11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="76" t="s">
         <v>117</v>
       </c>
@@ -6320,18 +6389,18 @@
       <c r="O1" s="77"/>
       <c r="P1" s="77"/>
       <c r="Q1" s="77"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -6356,18 +6425,18 @@
       <c r="O2" s="77"/>
       <c r="P2" s="77"/>
       <c r="Q2" s="78"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="50">
         <v>45128</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
       <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -6380,30 +6449,30 @@
       <c r="E3" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
       <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -6411,508 +6480,536 @@
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
       <c r="D4" s="75"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="50">
         <v>45133</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
       <c r="Z4" s="31"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="39" t="s">
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="42" t="s">
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39">
         <v>6</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36" t="s">
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35" t="s">
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35">
+      <c r="J8" s="39"/>
+      <c r="K8" s="39">
         <v>4</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36" t="s">
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35" t="s">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35">
+      <c r="J9" s="39"/>
+      <c r="K9" s="39">
         <v>4</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="N9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36" t="s">
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35" t="s">
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35">
+      <c r="J10" s="39"/>
+      <c r="K10" s="39">
         <v>6</v>
       </c>
-      <c r="L10" s="35"/>
+      <c r="L10" s="39"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="36" t="s">
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="36" t="s">
+      <c r="J11" s="35"/>
+      <c r="K11" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="36" t="s">
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="36" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="36" t="s">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="36" t="s">
+      <c r="J13" s="35"/>
+      <c r="K13" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="38"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="35" t="s">
+      <c r="N13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35" t="s">
-        <v>141</v>
+      <c r="B14" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="J14" s="35"/>
-      <c r="K14" s="35" t="s">
-        <v>19</v>
+      <c r="K14" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="L14" s="35"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
+      <c r="N14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="39"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34" t="s">
+      <c r="B16" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35" t="s">
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35">
+      <c r="J16" s="39"/>
+      <c r="K16" s="39">
         <v>300</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
+  <mergeCells count="91">
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:H8"/>
@@ -6929,7 +7026,39 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="I15:J15"/>
@@ -6937,19 +7066,13 @@
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="Q15:T15"/>
     <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6967,12 +7090,12 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="76" t="s">
         <v>35</v>
       </c>
@@ -6988,18 +7111,18 @@
       <c r="O1" s="77"/>
       <c r="P1" s="77"/>
       <c r="Q1" s="77"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
       <c r="Z1" s="14"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -7024,18 +7147,18 @@
       <c r="O2" s="77"/>
       <c r="P2" s="77"/>
       <c r="Q2" s="78"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="50">
         <v>45069</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
       <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -7048,30 +7171,30 @@
       <c r="E3" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -7079,467 +7202,551 @@
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
       <c r="D4" s="75"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="50">
         <v>45072</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
       <c r="Z4" s="18"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="39" t="s">
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="42" t="s">
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39">
         <v>6</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36" t="s">
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35" t="s">
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35">
+      <c r="J8" s="39"/>
+      <c r="K8" s="39">
         <v>2</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36" t="s">
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35" t="s">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35" t="s">
+      <c r="J9" s="39"/>
+      <c r="K9" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="N9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36" t="s">
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="33" t="s">
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35" t="s">
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35">
+      <c r="J10" s="39"/>
+      <c r="K10" s="39">
         <v>3</v>
       </c>
-      <c r="L10" s="35"/>
+      <c r="L10" s="39"/>
       <c r="M10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="N10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35" t="s">
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="13"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="13"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="13"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="13"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
       <c r="M16" s="13"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="13"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="R4:T4"/>
     <mergeCell ref="U4:Y4"/>
@@ -7554,90 +7761,6 @@
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7648,19 +7771,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAFEDA6-4C59-4898-A375-6ED897502BF9}">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:H15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="76" t="s">
         <v>112</v>
       </c>
@@ -7676,18 +7799,18 @@
       <c r="O1" s="77"/>
       <c r="P1" s="77"/>
       <c r="Q1" s="77"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -7712,18 +7835,18 @@
       <c r="O2" s="77"/>
       <c r="P2" s="77"/>
       <c r="Q2" s="78"/>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="52">
+      <c r="S2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="50">
         <v>45128</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
       <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -7736,30 +7859,30 @@
       <c r="E3" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="48" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51" t="s">
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
       <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -7767,877 +7890,761 @@
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
       <c r="D4" s="75"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="52">
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="50">
         <v>45132</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
       <c r="Z4" s="31"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="39" t="s">
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="42" t="s">
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39">
         <v>6</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36" t="s">
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="66" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="36" t="s">
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="36" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="36" t="s">
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="65"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="63"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="66" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="35" t="s">
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36">
+      <c r="J9" s="39"/>
+      <c r="K9" s="33">
         <v>100</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="65"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="63"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="66" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="36" t="s">
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="36" t="s">
+      <c r="J10" s="35"/>
+      <c r="K10" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="65"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="63"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="36" t="s">
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="36" t="s">
+      <c r="J11" s="35"/>
+      <c r="K11" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="65"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="63"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="66" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="36" t="s">
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="36" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="65"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="63"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="66" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="36" t="s">
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="36" t="s">
+      <c r="J13" s="35"/>
+      <c r="K13" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="38"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="65"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="63"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="66" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="36" t="s">
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="36" t="s">
+      <c r="J14" s="35"/>
+      <c r="K14" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="65"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="63"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="66" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="36" t="s">
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="36" t="s">
+      <c r="J15" s="35"/>
+      <c r="K15" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="38"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="65"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="63"/>
     </row>
     <row r="16" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="63" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="36" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="36" t="s">
+      <c r="J16" s="35"/>
+      <c r="K16" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="65"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="63"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="66" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="36" t="s">
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="36" t="s">
+      <c r="J17" s="35"/>
+      <c r="K17" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L17" s="38"/>
+      <c r="L17" s="35"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="65"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="66" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="36" t="s">
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="36" t="s">
+      <c r="J18" s="35"/>
+      <c r="K18" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="38"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="65"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="66" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="36" t="s">
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="36" t="s">
+      <c r="J19" s="35"/>
+      <c r="K19" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="38"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="65"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="63"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>14</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="66" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="36" t="s">
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="36" t="s">
+      <c r="J20" s="35"/>
+      <c r="K20" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L20" s="38"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="65"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="63"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>15</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="66" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="35" t="s">
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35">
+      <c r="J21" s="39"/>
+      <c r="K21" s="39">
         <v>2</v>
       </c>
-      <c r="L21" s="35"/>
+      <c r="L21" s="39"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="65"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="63"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>16</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="66" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="36" t="s">
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="36" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="38"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="63" t="s">
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="65"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="63"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>17</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="66" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="36" t="s">
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="38"/>
-      <c r="K23" s="36" t="s">
+      <c r="J23" s="35"/>
+      <c r="K23" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="38"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="63" t="s">
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="65"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="U22:AA22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="U23:AA23"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AA17"/>
     <mergeCell ref="U16:AA16"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="F17:H17"/>
@@ -8662,6 +8669,122 @@
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:AA23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\commpany_money\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\commpany_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2FF0D3-A18E-45C2-8E2B-14FB3FC78473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD1F75C-89B4-4575-B431-DE6E429E1436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{49359F61-E175-4E64-83B2-4241FAD3E8F3}"/>
   </bookViews>
@@ -1047,10 +1047,6 @@
     <t>route_money</t>
   </si>
   <si>
-    <t>route_money</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>holiday_type_name</t>
   </si>
   <si>
@@ -1137,6 +1133,10 @@
     <rPh sb="8" eb="12">
       <t>リレキカンリ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>road_money</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1473,18 +1473,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1495,52 +1483,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1556,6 +1505,63 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1574,12 +1580,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3138,10 +3138,10 @@
         <v>93</v>
       </c>
       <c r="F13" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3152,10 +3152,10 @@
         <v>94</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
@@ -3166,10 +3166,10 @@
         <v>138</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
@@ -3249,7 +3249,7 @@
         <v>91</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>131</v>
@@ -3314,12 +3314,12 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="76" t="s">
         <v>113</v>
       </c>
@@ -3335,18 +3335,18 @@
       <c r="O1" s="77"/>
       <c r="P1" s="77"/>
       <c r="Q1" s="77"/>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -3371,18 +3371,18 @@
       <c r="O2" s="77"/>
       <c r="P2" s="77"/>
       <c r="Q2" s="78"/>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="50">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45132</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -3395,28 +3395,28 @@
       <c r="E3" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="43" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -3424,759 +3424,885 @@
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
       <c r="D4" s="75"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="43" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
       <c r="Z4" s="31"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="60"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="56" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="59" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
         <v>6</v>
       </c>
-      <c r="L7" s="39"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="33" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="64" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="33" t="s">
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="33" t="s">
+      <c r="J8" s="38"/>
+      <c r="K8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="N8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="33" t="s">
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="63"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="65"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="64" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="39" t="s">
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="33">
+      <c r="J9" s="35"/>
+      <c r="K9" s="36">
         <v>100</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="65"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="64" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="33" t="s">
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="33" t="s">
+      <c r="J10" s="38"/>
+      <c r="K10" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="35"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="63"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="65"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="33" t="s">
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="33" t="s">
+      <c r="J11" s="38"/>
+      <c r="K11" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="35"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="63"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="65"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="64" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="33" t="s">
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="33" t="s">
+      <c r="J12" s="38"/>
+      <c r="K12" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="35"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="63"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="65"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="64" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="33" t="s">
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="33" t="s">
+      <c r="J13" s="38"/>
+      <c r="K13" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="35"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="63"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="65"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="33" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="33" t="s">
+      <c r="J14" s="38"/>
+      <c r="K14" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="35"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="63"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="65"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="64" t="s">
-        <v>166</v>
-      </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="33" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="33" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="35"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="63"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="65"/>
     </row>
     <row r="16" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="33" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="33" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="35"/>
+      <c r="L16" s="38"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="63"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="65"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="64" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="33" t="s">
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="33" t="s">
+      <c r="J17" s="38"/>
+      <c r="K17" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L17" s="35"/>
+      <c r="L17" s="38"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="65"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="64" t="s">
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="33" t="s">
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="33" t="s">
+      <c r="J18" s="38"/>
+      <c r="K18" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="35"/>
+      <c r="L18" s="38"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="65"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="64" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="33" t="s">
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="33" t="s">
+      <c r="J19" s="38"/>
+      <c r="K19" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="35"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="63"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="65"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>14</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="64" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="33" t="s">
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="33" t="s">
+      <c r="J20" s="38"/>
+      <c r="K20" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L20" s="35"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="63"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="65"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>15</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="64" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="39" t="s">
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39">
+      <c r="J21" s="35"/>
+      <c r="K21" s="35">
         <v>2</v>
       </c>
-      <c r="L21" s="39"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="63"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="65"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>16</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="64" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="33" t="s">
+      <c r="G22" s="67"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="33" t="s">
+      <c r="J22" s="38"/>
+      <c r="K22" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="35"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="61" t="s">
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="63"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="65"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>17</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="64" t="s">
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="33" t="s">
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="38"/>
+      <c r="K23" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="35"/>
+      <c r="L23" s="38"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="61" t="s">
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="63"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:AA23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:Q4"/>
     <mergeCell ref="R3:T3"/>
@@ -4191,132 +4317,6 @@
     <mergeCell ref="E2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U22:AA22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="U23:AA23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:T22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4340,68 +4340,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="43" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="40" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="50">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45131</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4410,64 +4410,64 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="43" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="46" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="43" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="50">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45132</v>
       </c>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4481,187 +4481,199 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="60"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="56" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="59" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="39"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="33" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
         <v>3</v>
       </c>
-      <c r="L8" s="39"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="37" t="s">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="39"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="36" t="s">
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="U6:AA6"/>
     <mergeCell ref="B7:E7"/>
@@ -4676,25 +4688,13 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4718,68 +4718,68 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="43" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="40" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="50">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45132</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4788,60 +4788,60 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="43" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="43" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U5" s="3"/>
@@ -4855,137 +4855,1469 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="60"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="56" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="59" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
         <v>2</v>
       </c>
-      <c r="L7" s="39"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="33" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
         <v>20</v>
       </c>
-      <c r="L8" s="39"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734AC1C0-0241-4BAA-93BF-9ED46739F7DA}">
+  <dimension ref="A1:AA8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
+        <v>45128</v>
+      </c>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
+        <v>4</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
+        <v>20</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19896A3F-2449-4BCE-ABDC-A60C9290DECE}">
+  <dimension ref="A1:AA28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
+        <v>45128</v>
+      </c>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
+        <v>6</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
+        <v>30</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35">
+        <v>2</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="37"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="65"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="68">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U28:AA28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:P28"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
+  <dimension ref="A1:AA26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
+        <v>45128</v>
+      </c>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
+        <v>45133</v>
+      </c>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
+        <v>4</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
+        <v>30</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="38"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="37"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="65"/>
+    </row>
+    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A26" s="13"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="U26:AA26"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
     <mergeCell ref="U8:AA8"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:H8"/>
@@ -5025,1355 +6357,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734AC1C0-0241-4BAA-93BF-9ED46739F7DA}">
-  <dimension ref="A1:AA8"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E9B359-EFD8-4164-9BD1-98BCA9877C8B}">
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="50">
-        <v>45128</v>
-      </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39">
-        <v>4</v>
-      </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39">
-        <v>20</v>
-      </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19896A3F-2449-4BCE-ABDC-A60C9290DECE}">
-  <dimension ref="A1:AA28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="50">
-        <v>45128</v>
-      </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39">
-        <v>6</v>
-      </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39">
-        <v>30</v>
-      </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39">
-        <v>2</v>
-      </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="34"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="63"/>
-    </row>
-    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A27" s="13"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="68"/>
-    </row>
-  </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U28:AA28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA1B0E-65A6-441D-990E-73926E3709B8}">
-  <dimension ref="A1:AA26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:Q2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="50">
-        <v>45128</v>
-      </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="50">
-        <v>45133</v>
-      </c>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39">
-        <v>4</v>
-      </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39">
-        <v>30</v>
-      </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
-    </row>
-    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-    </row>
-  </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U26:AA26"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E9B359-EFD8-4164-9BD1-98BCA9877C8B}">
-  <dimension ref="A1:AA16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11:AA11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="76" t="s">
         <v>117</v>
       </c>
@@ -6389,18 +6389,18 @@
       <c r="O1" s="77"/>
       <c r="P1" s="77"/>
       <c r="Q1" s="77"/>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -6425,18 +6425,18 @@
       <c r="O2" s="77"/>
       <c r="P2" s="77"/>
       <c r="Q2" s="78"/>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="50">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45128</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -6449,30 +6449,30 @@
       <c r="E3" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="43" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="46" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -6480,520 +6480,571 @@
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
       <c r="D4" s="75"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="43" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="50">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45133</v>
       </c>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
       <c r="Z4" s="31"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="60"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="56" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="59" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
         <v>6</v>
       </c>
-      <c r="L7" s="39"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="33" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
         <v>4</v>
       </c>
-      <c r="L8" s="39"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="33" t="s">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39">
+      <c r="J9" s="35"/>
+      <c r="K9" s="35">
         <v>4</v>
       </c>
-      <c r="L9" s="39"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="33" t="s">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39">
+      <c r="J10" s="35"/>
+      <c r="K10" s="35">
         <v>6</v>
       </c>
-      <c r="L10" s="39"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="33" t="s">
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="33" t="s">
+      <c r="J11" s="38"/>
+      <c r="K11" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="35"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="33" t="s">
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="33" t="s">
+      <c r="J12" s="38"/>
+      <c r="K12" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="35"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="33" t="s">
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="33" t="s">
+      <c r="J13" s="38"/>
+      <c r="K13" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="35"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="33" t="s">
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="33" t="s">
+      <c r="J14" s="38"/>
+      <c r="K14" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="35"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39" t="s">
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39" t="s">
+      <c r="J15" s="35"/>
+      <c r="K15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="39"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="37" t="s">
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39">
+      <c r="J16" s="35"/>
+      <c r="K16" s="35">
         <v>300</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="U9:AA9"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F16:H16"/>
@@ -7010,69 +7061,18 @@
     <mergeCell ref="Q9:T9"/>
     <mergeCell ref="Q13:T13"/>
     <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7090,12 +7090,12 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="76" t="s">
         <v>35</v>
       </c>
@@ -7111,18 +7111,18 @@
       <c r="O1" s="77"/>
       <c r="P1" s="77"/>
       <c r="Q1" s="77"/>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="14"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -7147,18 +7147,18 @@
       <c r="O2" s="77"/>
       <c r="P2" s="77"/>
       <c r="Q2" s="78"/>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="50">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45069</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -7171,30 +7171,30 @@
       <c r="E3" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="43" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="46" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -7202,481 +7202,537 @@
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
       <c r="D4" s="75"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="43" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="50">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45072</v>
       </c>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
       <c r="Z4" s="18"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="60"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="56" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="59" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
         <v>6</v>
       </c>
-      <c r="L7" s="39"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="33" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
         <v>2</v>
       </c>
-      <c r="L8" s="39"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="33" t="s">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="39"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="33" t="s">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="37" t="s">
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39">
+      <c r="J10" s="35"/>
+      <c r="K10" s="35">
         <v>3</v>
       </c>
-      <c r="L10" s="39"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39" t="s">
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="13"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="13"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="13"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="13"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
       <c r="M16" s="13"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="13"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
     <mergeCell ref="U15:AA15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F16:H16"/>
@@ -7691,76 +7747,20 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7778,12 +7778,12 @@
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="76" t="s">
         <v>112</v>
       </c>
@@ -7799,18 +7799,18 @@
       <c r="O1" s="77"/>
       <c r="P1" s="77"/>
       <c r="Q1" s="77"/>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -7835,18 +7835,18 @@
       <c r="O2" s="77"/>
       <c r="P2" s="77"/>
       <c r="Q2" s="78"/>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="50">
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="52">
         <v>45128</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
       <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -7859,30 +7859,30 @@
       <c r="E3" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="43" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="46" t="s">
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -7890,761 +7890,877 @@
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
       <c r="D4" s="75"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="43" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="50">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="52">
         <v>45132</v>
       </c>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
       <c r="Z4" s="31"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="60"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="56" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="59" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
         <v>6</v>
       </c>
-      <c r="L7" s="39"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="33" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="64" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="33" t="s">
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="33" t="s">
+      <c r="J8" s="38"/>
+      <c r="K8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="N8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="33" t="s">
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="63"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="65"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="64" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="39" t="s">
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="33">
+      <c r="J9" s="35"/>
+      <c r="K9" s="36">
         <v>100</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="65"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="64" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="33" t="s">
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="33" t="s">
+      <c r="J10" s="38"/>
+      <c r="K10" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="35"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="63"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="65"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="33" t="s">
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="33" t="s">
+      <c r="J11" s="38"/>
+      <c r="K11" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="35"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="63"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="65"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="64" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="33" t="s">
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="33" t="s">
+      <c r="J12" s="38"/>
+      <c r="K12" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="35"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="63"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="65"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="64" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="33" t="s">
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="33" t="s">
+      <c r="J13" s="38"/>
+      <c r="K13" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="35"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="63"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="65"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="33" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="33" t="s">
+      <c r="J14" s="38"/>
+      <c r="K14" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="35"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="63"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="65"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="64" t="s">
-        <v>166</v>
-      </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="33" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="33" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="35"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="63"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="65"/>
     </row>
     <row r="16" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="33" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="33" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="35"/>
+      <c r="L16" s="38"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="63"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="65"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="64" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="33" t="s">
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="33" t="s">
+      <c r="J17" s="38"/>
+      <c r="K17" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L17" s="35"/>
+      <c r="L17" s="38"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="65"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="64" t="s">
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="33" t="s">
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="33" t="s">
+      <c r="J18" s="38"/>
+      <c r="K18" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="35"/>
+      <c r="L18" s="38"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="65"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="64" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="33" t="s">
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="33" t="s">
+      <c r="J19" s="38"/>
+      <c r="K19" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="35"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="63"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="65"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>14</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="64" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="33" t="s">
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="33" t="s">
+      <c r="J20" s="38"/>
+      <c r="K20" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L20" s="35"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="63"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="65"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>15</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="64" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="39" t="s">
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39">
+      <c r="J21" s="35"/>
+      <c r="K21" s="35">
         <v>2</v>
       </c>
-      <c r="L21" s="39"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="63"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="65"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>16</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="64" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="33" t="s">
+      <c r="G22" s="67"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="33" t="s">
+      <c r="J22" s="38"/>
+      <c r="K22" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="35"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="61" t="s">
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="63"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="65"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>17</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="64" t="s">
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="33" t="s">
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="38"/>
+      <c r="K23" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="35"/>
+      <c r="L23" s="38"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="61" t="s">
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="63"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="U23:AA23"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="U17:AA17"/>
     <mergeCell ref="U16:AA16"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="F17:H17"/>
@@ -8669,122 +8785,6 @@
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="U22:AA22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="U23:AA23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
